--- a/Results/All vs healthy.xlsx
+++ b/Results/All vs healthy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomarNathoeRepubliq\Documents\GitHub\Test\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D28EA8C6-876F-4EF9-AFCF-9E1FB61EBE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7E12F4-C958-41C4-8E12-F3A969AFA1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,41 +35,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>intersection</t>
   </si>
   <si>
-    <t>No. Genes</t>
-  </si>
-  <si>
     <t>0.3</t>
   </si>
   <si>
-    <t>0.9965</t>
-  </si>
-  <si>
-    <t>0.9986</t>
-  </si>
-  <si>
-    <t>0.9945</t>
-  </si>
-  <si>
-    <t>0.99444</t>
-  </si>
-  <si>
-    <t>0.99784</t>
-  </si>
-  <si>
-    <t>0.9893</t>
-  </si>
-  <si>
-    <t>0.998559</t>
-  </si>
-  <si>
-    <t>0.997473</t>
-  </si>
-  <si>
     <t>Iterations</t>
   </si>
   <si>
@@ -103,44 +76,47 @@
     <t>ROC Spec</t>
   </si>
   <si>
-    <t>Iterations            200</t>
-  </si>
-  <si>
-    <t>Learning Rate         0.5</t>
-  </si>
-  <si>
-    <t>Depth                   7</t>
-  </si>
-  <si>
-    <t>F1                 0.9964</t>
-  </si>
-  <si>
-    <t>ROC                0.9903</t>
-  </si>
-  <si>
-    <t>Sensitivity        0.9957</t>
-  </si>
-  <si>
-    <t>Specificty         0.9889</t>
-  </si>
-  <si>
-    <t>CV F1            0.997477</t>
-  </si>
-  <si>
-    <t>CV ROC            0.99343</t>
-  </si>
-  <si>
-    <t>ROC Sens          0.99712</t>
-  </si>
-  <si>
-    <t>ROC Spec          0.99184</t>
+    <t>0.9957</t>
+  </si>
+  <si>
+    <t>No, Genes</t>
+  </si>
+  <si>
+    <t>ALL vs AML</t>
+  </si>
+  <si>
+    <t>ALL vs Healthy</t>
+  </si>
+  <si>
+    <t>0.9949458483754512</t>
+  </si>
+  <si>
+    <t>0.9888</t>
+  </si>
+  <si>
+    <t>0.9781</t>
+  </si>
+  <si>
+    <t>0.994963578667827</t>
+  </si>
+  <si>
+    <t>0.9891</t>
+  </si>
+  <si>
+    <t>0.9957499999999999</t>
+  </si>
+  <si>
+    <t>0.97866</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +128,51 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -183,6 +204,39 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -497,157 +551,1326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB534E20-7A20-4F67-9434-43B8E155F083}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:CT34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:98">
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:98">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B2" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C2" s="13"/>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>75</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:98">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="12">
+        <v>59</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:98">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14">
+        <v>100</v>
+      </c>
+      <c r="C4" s="15">
+        <v>200</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="G5" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.99855899999999997</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.99170274170274098</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.994401300343146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:98">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:98">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.99570000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:98">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.9889</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.96830000000000005</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.97409999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:98">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.99747300000000005</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.99747699999999995</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.99353425895078595</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.99641315519013296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:98">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0.99443999999999999</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.99343000000000004</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.99038999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:98">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B13" s="16">
+        <v>0.99783999999999995</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.99712000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.99434</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.99570999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:98">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.99184000000000005</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.98917999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:98">
+      <c r="B15" s="18"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:98">
+      <c r="A16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4"/>
+      <c r="BK16" s="4"/>
+      <c r="BL16" s="4"/>
+      <c r="BM16" s="4"/>
+      <c r="BN16" s="4"/>
+      <c r="BO16" s="4"/>
+      <c r="BP16" s="4"/>
+      <c r="BQ16" s="4"/>
+      <c r="BR16" s="4"/>
+      <c r="BS16" s="4"/>
+      <c r="BT16" s="4"/>
+      <c r="BU16" s="4"/>
+      <c r="BV16" s="4"/>
+      <c r="BW16" s="4"/>
+      <c r="BX16" s="4"/>
+      <c r="BY16" s="4"/>
+      <c r="BZ16" s="4"/>
+      <c r="CA16" s="4"/>
+      <c r="CB16" s="4"/>
+      <c r="CC16" s="4"/>
+      <c r="CD16" s="4"/>
+      <c r="CE16" s="4"/>
+      <c r="CF16" s="4"/>
+      <c r="CG16" s="4"/>
+      <c r="CH16" s="4"/>
+      <c r="CI16" s="4"/>
+      <c r="CJ16" s="4"/>
+      <c r="CK16" s="4"/>
+      <c r="CL16" s="4"/>
+      <c r="CM16" s="4"/>
+      <c r="CN16" s="4"/>
+      <c r="CO16" s="4"/>
+      <c r="CP16" s="4"/>
+      <c r="CQ16" s="4"/>
+      <c r="CR16" s="4"/>
+      <c r="CS16" s="4"/>
+      <c r="CT16" s="4"/>
+    </row>
+    <row r="17" spans="1:49">
+      <c r="A17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>50</v>
+      </c>
+      <c r="D17" s="11">
+        <v>75</v>
+      </c>
+      <c r="E17">
         <v>100</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="18" spans="1:49">
+      <c r="A18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49">
+      <c r="A19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>400</v>
+      </c>
+      <c r="C19" s="5">
+        <v>300</v>
+      </c>
+      <c r="D19" s="1">
+        <v>200</v>
+      </c>
+      <c r="E19" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49">
+      <c r="A20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+    </row>
+    <row r="21" spans="1:49">
+      <c r="A21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49">
+      <c r="A22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.98798076923076905</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.99516908212560296</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.99637243047158397</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.99518072289156601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49">
+      <c r="A23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.99470000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49">
+      <c r="A24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.99519999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49">
+      <c r="A25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.99419999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49">
+      <c r="A26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.983657074149764</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.99141595221128398</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.99249895689548695</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.992222579085689</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49">
+      <c r="A27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.99051999999999896</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.99168999999999896</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.99143000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49">
+      <c r="A28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.98316000000000003</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.99092999999999998</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.99172000000000005</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.99170999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49">
+      <c r="A29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B29" s="1">
+        <v>0.98107</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.99046999999999996</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.99138000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+    </row>
+    <row r="34" spans="2:28">
+      <c r="E34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AB34" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B7:C14">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:C14">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C13">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:C12">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:C10">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:C9">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:C7">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22 F22">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29 F29">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28 F28">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27 F27">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:C26 F26">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:C25 F25">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:C24 F24">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23 F23">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22 F22">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:D22 F22">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:D23 F23">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:D24 F24">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:D25 F25">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:D26 F26">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:D27 F27">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:D28 F28">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:D29 F29">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:F22 H22">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:F23 H23">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:F24 H24">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F25 H25">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26 H26">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:F27 H27">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F28 H28">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:F29 H29">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:E22">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:E23">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:E24">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:E25">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:E26">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:E27">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:E28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:E29">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:G11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:G12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:G13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:H14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Results/All vs healthy.xlsx
+++ b/Results/All vs healthy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomarNathoeRepubliq\Documents\GitHub\Test\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7E12F4-C958-41C4-8E12-F3A969AFA1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621F1799-1E03-4011-9342-D9832B583B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
+    <workbookView xWindow="3780" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,78 +35,354 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="116">
   <si>
     <t>intersection</t>
   </si>
   <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>Learning Rate</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificty</t>
+  </si>
+  <si>
+    <t>CV F1</t>
+  </si>
+  <si>
+    <t>CV ROC</t>
+  </si>
+  <si>
+    <t>ROC Sens</t>
+  </si>
+  <si>
+    <t>ROC Spec</t>
+  </si>
+  <si>
+    <t>No, Genes</t>
+  </si>
+  <si>
+    <t>ALL vs AML</t>
+  </si>
+  <si>
+    <t>ALL vs Healthy</t>
+  </si>
+  <si>
+    <t>SOX4</t>
+  </si>
+  <si>
+    <t>SCRN1</t>
+  </si>
+  <si>
+    <t>PRCP</t>
+  </si>
+  <si>
+    <t>TGFBI</t>
+  </si>
+  <si>
+    <t>TSPAN7</t>
+  </si>
+  <si>
+    <t>SYNE2</t>
+  </si>
+  <si>
+    <t>SMARCD3</t>
+  </si>
+  <si>
+    <t>WASF1</t>
+  </si>
+  <si>
+    <t>MYL6B</t>
+  </si>
+  <si>
+    <t>MYB</t>
+  </si>
+  <si>
+    <t>JADE3</t>
+  </si>
+  <si>
+    <t>BPI</t>
+  </si>
+  <si>
+    <t>MEOX1</t>
+  </si>
+  <si>
+    <t>RHAG</t>
+  </si>
+  <si>
+    <t>CSRP2</t>
+  </si>
+  <si>
+    <t>BTN1A1</t>
+  </si>
+  <si>
+    <t>FCER1A</t>
+  </si>
+  <si>
+    <t>PIK3CB</t>
+  </si>
+  <si>
+    <t>ZNF423</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>SPG21</t>
+  </si>
+  <si>
+    <t>REXO4</t>
+  </si>
+  <si>
+    <t>ZBTB38</t>
+  </si>
+  <si>
+    <t>SLC25A5</t>
+  </si>
+  <si>
+    <t>HSPA1A</t>
+  </si>
+  <si>
+    <t>UQCRQ</t>
+  </si>
+  <si>
+    <t>TLE1</t>
+  </si>
+  <si>
+    <t>EDEM1</t>
+  </si>
+  <si>
+    <t>NRGN</t>
+  </si>
+  <si>
+    <t>CKS2</t>
+  </si>
+  <si>
+    <t>RIMS3</t>
+  </si>
+  <si>
+    <t>MGMT</t>
+  </si>
+  <si>
+    <t>RHOH</t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
+    <t>CFD</t>
+  </si>
+  <si>
+    <t>ADAM28</t>
+  </si>
+  <si>
+    <t>CD19</t>
+  </si>
+  <si>
+    <t>CD3G</t>
+  </si>
+  <si>
+    <t>GIPC1</t>
+  </si>
+  <si>
+    <t>CD24</t>
+  </si>
+  <si>
+    <t>PRKD2</t>
+  </si>
+  <si>
+    <t>PCGF1</t>
+  </si>
+  <si>
+    <t>SBF1</t>
+  </si>
+  <si>
+    <t>SPART</t>
+  </si>
+  <si>
+    <t>CD3D</t>
+  </si>
+  <si>
+    <t>RUFY3</t>
+  </si>
+  <si>
+    <t>FLCN</t>
+  </si>
+  <si>
+    <t>PTGS1</t>
+  </si>
+  <si>
+    <t>PDCD6IPP2</t>
+  </si>
+  <si>
+    <t>FXYD5</t>
+  </si>
+  <si>
+    <t>DHX32</t>
+  </si>
+  <si>
+    <t>KLC2</t>
+  </si>
+  <si>
+    <t>MICALL2</t>
+  </si>
+  <si>
+    <t>CD177</t>
+  </si>
+  <si>
+    <t>USP48</t>
+  </si>
+  <si>
+    <t>SERGEF</t>
+  </si>
+  <si>
+    <t>ROBO4</t>
+  </si>
+  <si>
+    <t>VPREB1</t>
+  </si>
+  <si>
+    <t>RTN2</t>
+  </si>
+  <si>
+    <t>TRIM49B</t>
+  </si>
+  <si>
+    <t>SEPT10P1</t>
+  </si>
+  <si>
+    <t>GABPAP</t>
+  </si>
+  <si>
+    <t>SNORA66</t>
+  </si>
+  <si>
+    <t>KCNS3</t>
+  </si>
+  <si>
+    <t>NPY</t>
+  </si>
+  <si>
+    <t>SPANXC</t>
+  </si>
+  <si>
+    <t>GH2</t>
+  </si>
+  <si>
+    <t>MAP3K19</t>
+  </si>
+  <si>
+    <t>HMGB1P12</t>
+  </si>
+  <si>
+    <t>ALX1</t>
+  </si>
+  <si>
+    <t>PAICSP4</t>
+  </si>
+  <si>
+    <t>S100A11P1</t>
+  </si>
+  <si>
+    <t>GH1</t>
+  </si>
+  <si>
+    <t>HMGB3P1</t>
+  </si>
+  <si>
+    <t>HMGN2P9</t>
+  </si>
+  <si>
+    <t>IFNA13</t>
+  </si>
+  <si>
+    <t>RNU6-73P</t>
+  </si>
+  <si>
+    <t>RBMS2P1</t>
+  </si>
+  <si>
+    <t>LINC00472</t>
+  </si>
+  <si>
+    <t>PCDHGA3</t>
+  </si>
+  <si>
+    <t>EYA4</t>
+  </si>
+  <si>
+    <t>CES1P1</t>
+  </si>
+  <si>
     <t>0.3</t>
   </si>
   <si>
-    <t>Iterations</t>
-  </si>
-  <si>
-    <t>Learning Rate</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>ROC</t>
-  </si>
-  <si>
-    <t>Sensitivity</t>
-  </si>
-  <si>
-    <t>Specificty</t>
-  </si>
-  <si>
-    <t>CV F1</t>
-  </si>
-  <si>
-    <t>CV ROC</t>
-  </si>
-  <si>
-    <t>ROC Sens</t>
-  </si>
-  <si>
-    <t>ROC Spec</t>
-  </si>
-  <si>
-    <t>0.9957</t>
-  </si>
-  <si>
-    <t>No, Genes</t>
-  </si>
-  <si>
-    <t>ALL vs AML</t>
-  </si>
-  <si>
-    <t>ALL vs Healthy</t>
-  </si>
-  <si>
-    <t>0.9949458483754512</t>
-  </si>
-  <si>
-    <t>0.9888</t>
-  </si>
-  <si>
-    <t>0.9781</t>
-  </si>
-  <si>
-    <t>0.994963578667827</t>
-  </si>
-  <si>
-    <t>0.9891</t>
-  </si>
-  <si>
-    <t>0.9957499999999999</t>
-  </si>
-  <si>
-    <t>0.97866</t>
+    <t>0.948587</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8333</t>
+  </si>
+  <si>
+    <t>0.9235</t>
+  </si>
+  <si>
+    <t>0.93479</t>
+  </si>
+  <si>
+    <t>0.93204</t>
+  </si>
+  <si>
+    <t>0.8792</t>
+  </si>
+  <si>
+    <t>0.959442</t>
+  </si>
+  <si>
+    <t>0.8602</t>
+  </si>
+  <si>
+    <t>CHi2</t>
+  </si>
+  <si>
+    <t>Anova</t>
+  </si>
+  <si>
+    <t>0.98283</t>
+  </si>
+  <si>
+    <t>0.9615</t>
+  </si>
+  <si>
+    <t>0.9848</t>
+  </si>
+  <si>
+    <t>0.9281</t>
+  </si>
+  <si>
+    <t>0.990667</t>
+  </si>
+  <si>
+    <t>0.97846</t>
+  </si>
+  <si>
+    <t>0.99142</t>
+  </si>
+  <si>
+    <t>0.96167</t>
   </si>
 </sst>
 </file>
@@ -114,7 +390,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -208,7 +484,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -230,10 +506,10 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -554,7 +830,7 @@
   <dimension ref="A1:CT34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -566,7 +842,7 @@
   <sheetData>
     <row r="1" spans="1:98">
       <c r="A1" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:98">
@@ -577,37 +853,49 @@
         <v>100</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="E2">
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
         <v>25</v>
       </c>
-      <c r="F2">
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
         <v>75</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:98">
       <c r="A3" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="12">
         <v>59</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="E3">
-        <v>22</v>
-      </c>
       <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
         <v>39</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:98">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="14">
         <v>100</v>
@@ -615,19 +903,32 @@
       <c r="C4" s="15">
         <v>200</v>
       </c>
-      <c r="E4" s="1">
-        <v>100</v>
-      </c>
       <c r="F4" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G4" s="1">
         <v>100</v>
       </c>
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+      <c r="J4" s="1">
+        <v>100</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="AL4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="1:98">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="14">
         <v>0.3</v>
@@ -635,19 +936,32 @@
       <c r="C5" s="15">
         <v>0.5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="1">
         <v>0.5</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="AL5" s="1">
+        <v>400</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:98">
       <c r="A6" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="14">
         <v>6</v>
@@ -655,19 +969,32 @@
       <c r="C6" s="15">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
+      <c r="J6" s="1">
         <v>4</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="AL6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:98">
       <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="16">
         <v>0.99855899999999997</v>
@@ -675,19 +1002,32 @@
       <c r="C7" s="17">
         <v>0.99639999999999995</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
+        <v>0.97772188286022199</v>
+      </c>
+      <c r="G7" s="1">
         <v>0.99170274170274098</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
+        <v>0.99422591122338499</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.99494584837545097</v>
+      </c>
+      <c r="J7" s="1">
         <v>0.994401300343146</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="AL7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:98">
       <c r="A8" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="16">
         <v>0.99650000000000005</v>
@@ -695,19 +1035,32 @@
       <c r="C8" s="17">
         <v>0.99029999999999996</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
+        <v>0.9405</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.98</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="J8" s="1">
         <v>0.98829999999999996</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="AL8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:98">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="16">
         <v>0.99860000000000004</v>
@@ -715,19 +1068,32 @@
       <c r="C9" s="17">
         <v>0.99570000000000003</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="G9" s="1">
         <v>0.99170000000000003</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="I9" s="1">
         <v>0.99570000000000003</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="AL9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:98">
       <c r="A10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="16">
         <v>0.99450000000000005</v>
@@ -735,19 +1101,32 @@
       <c r="C10" s="17">
         <v>0.9889</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.96830000000000005</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="J10" s="1">
         <v>0.97409999999999997</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="AL10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:98">
       <c r="A11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="16">
         <v>0.99747300000000005</v>
@@ -755,19 +1134,32 @@
       <c r="C11" s="17">
         <v>0.99747699999999995</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
+        <v>0.97637048545312399</v>
+      </c>
+      <c r="G11" s="1">
         <v>0.99353425895078595</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
+        <v>0.99493206440797199</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.99496357866782703</v>
+      </c>
+      <c r="J11" s="1">
         <v>0.99641315519013296</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="AL11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:98">
       <c r="A12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="16">
         <v>0.99443999999999999</v>
@@ -775,19 +1167,100 @@
       <c r="C12" s="17">
         <v>0.99343000000000004</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
+        <v>0.93538999999999894</v>
+      </c>
+      <c r="G12" s="1">
         <v>0.98529999999999995</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.99038999999999999</v>
+      </c>
+      <c r="N12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="1">
-        <v>0.99038999999999999</v>
+      <c r="U12" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" t="s">
+        <v>24</v>
+      </c>
+      <c r="X12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:98">
       <c r="A13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="16">
         <v>0.99783999999999995</v>
@@ -795,19 +1268,100 @@
       <c r="C13" s="17">
         <v>0.99712000000000001</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
+        <v>0.97157000000000004</v>
+      </c>
+      <c r="G13" s="1">
         <v>0.99434</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
+        <v>0.99713999999999903</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.99574999999999902</v>
+      </c>
+      <c r="J13" s="1">
         <v>0.99570999999999998</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:98">
       <c r="A14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="16">
         <v>0.98929999999999996</v>
@@ -815,23 +1369,42 @@
       <c r="C14" s="17">
         <v>0.99184000000000005</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
+        <v>0.92791000000000001</v>
+      </c>
+      <c r="G14" s="1">
         <v>0.97360000000000002</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
+        <v>0.97392000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.97865999999999997</v>
+      </c>
+      <c r="J14" s="1">
         <v>0.98917999999999995</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="AL14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:98">
       <c r="B15" s="18"/>
       <c r="C15" s="13"/>
+      <c r="AL15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="16" spans="1:98">
       <c r="A16" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -861,7 +1434,6 @@
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
@@ -923,7 +1495,7 @@
       <c r="CS16" s="4"/>
       <c r="CT16" s="4"/>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:51">
       <c r="A17" s="8" t="s">
         <v>0</v>
       </c>
@@ -940,9 +1512,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:51">
       <c r="A18" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>11</v>
@@ -956,10 +1528,121 @@
       <c r="E18">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:49">
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>41</v>
+      </c>
+      <c r="R18" t="s">
+        <v>42</v>
+      </c>
+      <c r="S18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" t="s">
+        <v>44</v>
+      </c>
+      <c r="U18" t="s">
+        <v>45</v>
+      </c>
+      <c r="V18" t="s">
+        <v>24</v>
+      </c>
+      <c r="W18" t="s">
+        <v>46</v>
+      </c>
+      <c r="X18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51">
       <c r="A19" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>400</v>
@@ -973,10 +1656,121 @@
       <c r="E19" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="1:49">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>6</v>
+      </c>
+      <c r="T19">
+        <v>7</v>
+      </c>
+      <c r="U19">
+        <v>8</v>
+      </c>
+      <c r="V19">
+        <v>9</v>
+      </c>
+      <c r="W19">
+        <v>10</v>
+      </c>
+      <c r="X19">
+        <v>11</v>
+      </c>
+      <c r="Y19">
+        <v>12</v>
+      </c>
+      <c r="Z19">
+        <v>13</v>
+      </c>
+      <c r="AA19">
+        <v>14</v>
+      </c>
+      <c r="AB19">
+        <v>15</v>
+      </c>
+      <c r="AC19">
+        <v>16</v>
+      </c>
+      <c r="AD19">
+        <v>17</v>
+      </c>
+      <c r="AE19">
+        <v>18</v>
+      </c>
+      <c r="AF19">
+        <v>19</v>
+      </c>
+      <c r="AG19">
+        <v>20</v>
+      </c>
+      <c r="AH19">
+        <v>21</v>
+      </c>
+      <c r="AI19">
+        <v>22</v>
+      </c>
+      <c r="AJ19">
+        <v>23</v>
+      </c>
+      <c r="AK19">
+        <v>24</v>
+      </c>
+      <c r="AM19">
+        <v>26</v>
+      </c>
+      <c r="AN19">
+        <v>27</v>
+      </c>
+      <c r="AO19">
+        <v>28</v>
+      </c>
+      <c r="AP19">
+        <v>29</v>
+      </c>
+      <c r="AQ19">
+        <v>30</v>
+      </c>
+      <c r="AR19">
+        <v>31</v>
+      </c>
+      <c r="AS19">
+        <v>32</v>
+      </c>
+      <c r="AT19">
+        <v>33</v>
+      </c>
+      <c r="AU19">
+        <v>34</v>
+      </c>
+      <c r="AV19">
+        <v>35</v>
+      </c>
+      <c r="AW19">
+        <v>36</v>
+      </c>
+      <c r="AX19">
+        <v>37</v>
+      </c>
+      <c r="AY19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51">
       <c r="A20" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
         <v>0.3</v>
@@ -1016,7 +1810,6 @@
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
       <c r="AM20" s="4"/>
       <c r="AN20" s="4"/>
       <c r="AO20" s="4"/>
@@ -1029,9 +1822,9 @@
       <c r="AV20" s="4"/>
       <c r="AW20" s="4"/>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:51">
       <c r="A21" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
         <v>5</v>
@@ -1046,9 +1839,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:51">
       <c r="A22" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1">
         <v>0.98798076923076905</v>
@@ -1063,9 +1856,9 @@
         <v>0.99518072289156601</v>
       </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:51">
       <c r="A23" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1">
         <v>0.98650000000000004</v>
@@ -1080,9 +1873,9 @@
         <v>0.99470000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:51">
       <c r="A24" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1">
         <v>0.98560000000000003</v>
@@ -1097,9 +1890,9 @@
         <v>0.99519999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:51">
       <c r="A25" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1">
         <v>0.98839999999999995</v>
@@ -1114,9 +1907,9 @@
         <v>0.99419999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:51">
       <c r="A26" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1">
         <v>0.983657074149764</v>
@@ -1131,9 +1924,9 @@
         <v>0.992222579085689</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:51">
       <c r="A27" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1">
         <v>0.98199999999999998</v>
@@ -1148,9 +1941,9 @@
         <v>0.99143000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:51">
       <c r="A28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1">
         <v>0.98316000000000003</v>
@@ -1165,9 +1958,9 @@
         <v>0.99170999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:51">
       <c r="A29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1">
         <v>0.98107</v>
@@ -1224,6 +2017,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7:C14">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:C14">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C13">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:C12">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -1235,56 +2076,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:C13">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:C12">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1296,7 +2089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1308,7 +2101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1320,7 +2113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C7">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1332,7 +2125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1344,7 +2137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1356,7 +2149,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1368,7 +2161,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1380,7 +2173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1392,7 +2185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1404,7 +2197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1416,7 +2209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1428,7 +2221,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22 F22">
-    <cfRule type="colorScale" priority="71">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1440,7 +2233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C29 F29">
-    <cfRule type="colorScale" priority="74">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1452,7 +2245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:C28 F28">
-    <cfRule type="colorScale" priority="77">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1464,7 +2257,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:C27 F27">
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1476,7 +2269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:C26 F26">
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1488,7 +2281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:C25 F25">
-    <cfRule type="colorScale" priority="86">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1500,7 +2293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C24 F24">
-    <cfRule type="colorScale" priority="89">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1512,7 +2305,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23 F23">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1524,7 +2317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22 F22">
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1536,7 +2329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:D22 F22">
-    <cfRule type="colorScale" priority="98">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1548,7 +2341,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:D23 F23">
-    <cfRule type="colorScale" priority="100">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1560,7 +2353,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D24 F24">
-    <cfRule type="colorScale" priority="102">
+    <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1572,7 +2365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:D25 F25">
-    <cfRule type="colorScale" priority="104">
+    <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1584,7 +2377,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:D26 F26">
-    <cfRule type="colorScale" priority="106">
+    <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1596,7 +2389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:D27 F27">
-    <cfRule type="colorScale" priority="108">
+    <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1608,7 +2401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:D28 F28">
-    <cfRule type="colorScale" priority="110">
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1620,7 +2413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:D29 F29">
-    <cfRule type="colorScale" priority="112">
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1632,7 +2425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22 H22">
-    <cfRule type="colorScale" priority="114">
+    <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1644,7 +2437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:F23 H23">
-    <cfRule type="colorScale" priority="116">
+    <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1656,7 +2449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:F24 H24">
-    <cfRule type="colorScale" priority="118">
+    <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1668,7 +2461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:F25 H25">
-    <cfRule type="colorScale" priority="120">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1680,7 +2473,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:F26 H26">
-    <cfRule type="colorScale" priority="122">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1692,7 +2485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:F27 H27">
-    <cfRule type="colorScale" priority="124">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1704,7 +2497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F28 H28">
-    <cfRule type="colorScale" priority="126">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1716,7 +2509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:F29 H29">
-    <cfRule type="colorScale" priority="128">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1728,7 +2521,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:E22">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1740,7 +2533,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:E23">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1752,7 +2545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:E24">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1764,6 +2557,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:E25">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:E26">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:E27">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:E28">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:E29">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:J14 O14">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1775,7 +2628,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:E26">
+  <conditionalFormatting sqref="I11:J11 O11">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:J12 O12">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:J13">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:J11 O11">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1787,7 +2676,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:E27">
+  <conditionalFormatting sqref="H12:J12 O12">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1799,7 +2688,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:E28">
+  <conditionalFormatting sqref="H13:J13">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1811,7 +2700,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:E29">
+  <conditionalFormatting sqref="H14:J14 O14">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1823,7 +2712,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:G11">
+  <conditionalFormatting sqref="F14:J14">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1835,7 +2724,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:G12">
+  <conditionalFormatting sqref="F13:J13">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1847,7 +2736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G13">
+  <conditionalFormatting sqref="F12:J12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1859,7 +2748,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:H14">
+  <conditionalFormatting sqref="F11:J11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Results/All vs healthy.xlsx
+++ b/Results/All vs healthy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomarNathoeRepubliq\Documents\GitHub\Test\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romar\OneDrive\Documenten\Thesis\Test\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848AD07B-2761-415F-BE06-DE0779346748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5350B68D-EB6D-42EF-BD78-F6DF14422CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
+    <workbookView xWindow="-16320" yWindow="-2835" windowWidth="16440" windowHeight="28320" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="141">
   <si>
     <t>intersection</t>
   </si>
@@ -67,12 +67,6 @@
     <t>CV ROC</t>
   </si>
   <si>
-    <t>ROC Sens</t>
-  </si>
-  <si>
-    <t>ROC Spec</t>
-  </si>
-  <si>
     <t>No, Genes</t>
   </si>
   <si>
@@ -350,6 +344,120 @@
   </si>
   <si>
     <t>cv Spec</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.9915560916767189</t>
+  </si>
+  <si>
+    <t>0.9909</t>
+  </si>
+  <si>
+    <t>0.9928</t>
+  </si>
+  <si>
+    <t>0.9885</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.9911568875266731</t>
+  </si>
+  <si>
+    <t>0.9901399999999999</t>
+  </si>
+  <si>
+    <t>0.9895900000000001</t>
+  </si>
+  <si>
+    <t>0.9913900000000002</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.9951807228915662</t>
+  </si>
+  <si>
+    <t>0.9947</t>
+  </si>
+  <si>
+    <t>0.9952</t>
+  </si>
+  <si>
+    <t>0.9942</t>
+  </si>
+  <si>
+    <t>0.9932938569034906</t>
+  </si>
+  <si>
+    <t>0.9926400000000001</t>
+  </si>
+  <si>
+    <t>0.9933200000000001</t>
+  </si>
+  <si>
+    <t>0.9920399999999999</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.9963811821471653</t>
+  </si>
+  <si>
+    <t>0.9961</t>
+  </si>
+  <si>
+    <t>0.9976</t>
+  </si>
+  <si>
+    <t>0.9943</t>
+  </si>
+  <si>
+    <t>0.9939646056988455</t>
+  </si>
+  <si>
+    <t>0.9934100000000001</t>
+  </si>
+  <si>
+    <t>0.9944</t>
+  </si>
+  <si>
+    <t>0.9923699999999999</t>
+  </si>
+  <si>
+    <t>0.9939831528279183</t>
+  </si>
+  <si>
+    <t>0.9933</t>
+  </si>
+  <si>
+    <t>0.9934285394750277</t>
+  </si>
+  <si>
+    <t>0.99278</t>
+  </si>
+  <si>
+    <t>0.9923400000000002</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.9931600426163966</t>
+  </si>
+  <si>
+    <t>0.9924800000000001</t>
+  </si>
+  <si>
+    <t>0.99305</t>
+  </si>
+  <si>
+    <t>0.99203</t>
   </si>
 </sst>
 </file>
@@ -358,7 +466,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -480,7 +588,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB534E20-7A20-4F67-9434-43B8E155F083}">
-  <dimension ref="A1:CT34"/>
+  <dimension ref="A1:CT50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H12"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -818,39 +926,42 @@
   <sheetData>
     <row r="1" spans="1:98">
       <c r="A1" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:98">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
+        <v>25</v>
+      </c>
+      <c r="C2">
         <v>50</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>75</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>100</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>125</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>150</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>175</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>200</v>
       </c>
-      <c r="J2" t="s">
-        <v>100</v>
+      <c r="K2" t="s">
+        <v>98</v>
       </c>
       <c r="AB2" s="12">
         <v>100</v>
@@ -874,27 +985,27 @@
     </row>
     <row r="3" spans="1:98">
       <c r="A3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
         <v>22</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>37</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>62</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>74</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>87</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>104</v>
       </c>
       <c r="AB3" s="12">
@@ -921,17 +1032,14 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>200</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
       </c>
       <c r="E4" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1">
         <v>200</v>
@@ -942,7 +1050,10 @@
       <c r="H4" s="1">
         <v>200</v>
       </c>
-      <c r="J4" s="1">
+      <c r="I4" s="1">
+        <v>200</v>
+      </c>
+      <c r="K4" s="1">
         <v>200</v>
       </c>
       <c r="AB4" s="14">
@@ -967,38 +1078,38 @@
         <v>100</v>
       </c>
       <c r="AL4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:98">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>0.1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0.3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.1</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0.1</v>
       </c>
       <c r="AB5" s="14">
@@ -1033,28 +1144,28 @@
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
       </c>
-      <c r="J6" s="1">
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
         <v>4</v>
       </c>
       <c r="AB6" s="14">
@@ -1089,28 +1200,28 @@
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="18">
+      <c r="C7" s="18">
         <v>0.99783705839942305</v>
       </c>
-      <c r="C7" s="18">
+      <c r="D7" s="18">
         <v>0.99855907780979802</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.99855699855699798</v>
       </c>
       <c r="E7" s="18">
         <v>0.99855699855699798</v>
       </c>
       <c r="F7" s="18">
+        <v>0.99855699855699798</v>
+      </c>
+      <c r="G7" s="18">
         <v>0.99855907780979802</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0.99855699855699798</v>
       </c>
       <c r="H7" s="18">
         <v>0.99855699855699798</v>
       </c>
-      <c r="J7" s="18">
+      <c r="I7" s="18">
+        <v>0.99855699855699798</v>
+      </c>
+      <c r="K7" s="18">
         <v>0.99711815561959605</v>
       </c>
       <c r="AB7" s="16">
@@ -1145,28 +1256,28 @@
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18">
+      <c r="C8" s="18">
         <v>0.99580000000000002</v>
       </c>
-      <c r="C8" s="18">
+      <c r="D8" s="18">
         <v>0.99650000000000005</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0.99860000000000004</v>
       </c>
       <c r="E8" s="18">
         <v>0.99860000000000004</v>
       </c>
       <c r="F8" s="18">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="G8" s="18">
         <v>0.99650000000000005</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0.99860000000000004</v>
       </c>
       <c r="H8" s="18">
         <v>0.99860000000000004</v>
       </c>
-      <c r="J8" s="18">
+      <c r="I8" s="18">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="K8" s="18">
         <v>0.99299999999999999</v>
       </c>
       <c r="AB8" s="16">
@@ -1201,28 +1312,28 @@
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="18">
-        <v>0.99860000000000004</v>
-      </c>
       <c r="C9" s="18">
         <v>0.99860000000000004</v>
       </c>
       <c r="D9" s="18">
-        <v>1</v>
+        <v>0.99860000000000004</v>
       </c>
       <c r="E9" s="18">
         <v>1</v>
       </c>
       <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18">
         <v>0.99860000000000004</v>
-      </c>
-      <c r="G9" s="18">
-        <v>1</v>
       </c>
       <c r="H9" s="18">
         <v>1</v>
       </c>
-      <c r="J9" s="18">
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="K9" s="18">
         <v>0.99709999999999999</v>
       </c>
       <c r="AB9" s="16">
@@ -1257,28 +1368,28 @@
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="18">
+      <c r="C10" s="18">
         <v>0.98899999999999999</v>
       </c>
-      <c r="C10" s="18">
+      <c r="D10" s="18">
         <v>0.99450000000000005</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0.98909999999999998</v>
       </c>
       <c r="E10" s="18">
         <v>0.98909999999999998</v>
       </c>
       <c r="F10" s="18">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="G10" s="18">
         <v>0.99450000000000005</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0.98909999999999998</v>
       </c>
       <c r="H10" s="18">
         <v>0.98909999999999998</v>
       </c>
-      <c r="J10" s="18">
+      <c r="I10" s="18">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="K10" s="18">
         <v>0.98899999999999999</v>
       </c>
       <c r="AB10" s="16">
@@ -1311,10 +1422,7 @@
     </row>
     <row r="11" spans="1:98">
       <c r="A11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="18">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C11" s="18">
         <v>1</v>
@@ -1334,7 +1442,10 @@
       <c r="H11" s="18">
         <v>1</v>
       </c>
-      <c r="J11" s="18">
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="K11" s="18">
         <v>1</v>
       </c>
       <c r="AB11" s="16">
@@ -1369,28 +1480,28 @@
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18">
+      <c r="C12" s="18">
         <v>0.996925848313723</v>
       </c>
-      <c r="C12" s="18">
+      <c r="D12" s="18">
         <v>0.99728882234207905</v>
       </c>
-      <c r="D12" s="18">
+      <c r="E12" s="18">
         <v>0.99710862918448795</v>
       </c>
-      <c r="E12" s="18">
+      <c r="F12" s="18">
         <v>0.99746703343015897</v>
       </c>
-      <c r="F12" s="18">
+      <c r="G12" s="18">
         <v>0.99819428830808499</v>
       </c>
-      <c r="G12" s="18">
+      <c r="H12" s="18">
         <v>0.99764982371107003</v>
       </c>
-      <c r="H12" s="18">
+      <c r="I12" s="18">
         <v>0.99782934987973004</v>
       </c>
-      <c r="J12" s="18">
+      <c r="K12" s="18">
         <v>0.99782935342128498</v>
       </c>
       <c r="AB12" s="16">
@@ -1425,28 +1536,28 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="18">
+      <c r="C13" s="18">
         <v>0.99539</v>
       </c>
-      <c r="C13" s="18">
+      <c r="D13" s="18">
         <v>0.99574999999999902</v>
       </c>
-      <c r="D13" s="18">
+      <c r="E13" s="18">
         <v>0.99458999999999997</v>
       </c>
-      <c r="E13" s="18">
+      <c r="F13" s="18">
         <v>0.99595999999999996</v>
       </c>
-      <c r="F13" s="18">
+      <c r="G13" s="18">
         <v>0.99666999999999994</v>
       </c>
-      <c r="G13" s="18">
+      <c r="H13" s="18">
         <v>0.99563999999999997</v>
       </c>
-      <c r="H13" s="18">
+      <c r="I13" s="18">
         <v>0.99682999999999999</v>
       </c>
-      <c r="J13" s="18">
+      <c r="K13" s="18">
         <v>0.99680999999999997</v>
       </c>
       <c r="AB13" s="16">
@@ -1479,30 +1590,30 @@
     </row>
     <row r="14" spans="1:98">
       <c r="A14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="18">
+        <v>101</v>
+      </c>
+      <c r="C14" s="18">
         <v>0.99892000000000003</v>
       </c>
-      <c r="C14" s="18">
+      <c r="D14" s="18">
         <v>0.99891999999999903</v>
       </c>
-      <c r="D14" s="18">
+      <c r="E14" s="18">
         <v>0.99819999999999998</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0.99891999999999903</v>
       </c>
       <c r="F14" s="18">
         <v>0.99891999999999903</v>
       </c>
       <c r="G14" s="18">
+        <v>0.99891999999999903</v>
+      </c>
+      <c r="H14" s="18">
         <v>0.998559999999999</v>
       </c>
-      <c r="H14" s="18">
+      <c r="I14" s="18">
         <v>0.99927999999999995</v>
       </c>
-      <c r="J14" s="18">
+      <c r="K14" s="18">
         <v>0.99927999999999995</v>
       </c>
       <c r="AB14" s="16">
@@ -1535,44 +1646,41 @@
     </row>
     <row r="15" spans="1:98">
       <c r="A15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="18">
+        <v>102</v>
+      </c>
+      <c r="C15" s="18">
         <v>0.98110999999999904</v>
       </c>
-      <c r="C15" s="18">
+      <c r="D15" s="18">
         <v>0.98375999999999997</v>
       </c>
-      <c r="D15" s="18">
+      <c r="E15" s="18">
         <v>0.98521000000000003</v>
       </c>
-      <c r="E15" s="18">
+      <c r="F15" s="18">
         <v>0.98528000000000004</v>
       </c>
-      <c r="F15" s="18">
+      <c r="G15" s="18">
         <v>0.99051999999999996</v>
       </c>
-      <c r="G15" s="18">
+      <c r="H15" s="18">
         <v>0.98794000000000004</v>
       </c>
-      <c r="H15" s="18">
+      <c r="I15" s="18">
         <v>0.98658999999999997</v>
       </c>
-      <c r="J15" s="18">
+      <c r="K15" s="18">
         <v>0.98655000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:98">
       <c r="A16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="18">
+        <v>100</v>
+      </c>
+      <c r="C16" s="18">
         <v>1</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="1">
@@ -1587,10 +1695,12 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1">
+      <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="BC16" s="4"/>
@@ -1640,53 +1750,66 @@
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2">
-        <v>50</v>
-      </c>
-      <c r="D18" s="11">
-        <v>75</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B19">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2">
-        <v>27</v>
-      </c>
-      <c r="D19">
-        <v>38</v>
+      <c r="B19" s="3">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19" s="3">
+        <v>75</v>
       </c>
       <c r="E19">
-        <v>57</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>125</v>
+      </c>
+      <c r="G19">
+        <v>150</v>
+      </c>
+      <c r="H19" s="3">
+        <v>175</v>
+      </c>
+      <c r="I19">
+        <v>200</v>
+      </c>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1">
-        <v>400</v>
-      </c>
-      <c r="C20" s="5">
-        <v>300</v>
-      </c>
-      <c r="D20" s="1">
-        <v>200</v>
-      </c>
-      <c r="E20" s="1">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="B20" s="3">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>62</v>
+      </c>
+      <c r="F20" s="3">
+        <v>76</v>
+      </c>
+      <c r="G20" s="3">
+        <v>85</v>
+      </c>
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>116</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -1695,103 +1818,109 @@
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.3</v>
+      <c r="F21" s="1">
+        <v>300</v>
+      </c>
+      <c r="G21" s="1">
+        <v>300</v>
+      </c>
+      <c r="H21" s="1">
+        <v>300</v>
+      </c>
+      <c r="I21" s="1">
+        <v>300</v>
+      </c>
+      <c r="K21" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="1">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1">
-        <v>3</v>
+      <c r="F22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="M22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" t="s">
         <v>15</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="P22" t="s">
         <v>16</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>17</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>18</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>19</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T22" t="s">
         <v>20</v>
       </c>
-      <c r="S22" t="s">
+      <c r="U22" t="s">
         <v>21</v>
       </c>
-      <c r="T22" t="s">
+      <c r="V22" t="s">
         <v>22</v>
       </c>
-      <c r="U22" t="s">
+      <c r="W22" t="s">
         <v>23</v>
       </c>
-      <c r="V22" t="s">
+      <c r="X22" t="s">
         <v>24</v>
       </c>
-      <c r="W22" t="s">
+      <c r="Y22" t="s">
         <v>25</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Z22" t="s">
         <v>26</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AA22" t="s">
         <v>27</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AB22" t="s">
         <v>28</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AC22" t="s">
         <v>29</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AD22" t="s">
         <v>30</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AE22" t="s">
         <v>31</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AF22" t="s">
         <v>32</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AG22" t="s">
         <v>33</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>34</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AI22" t="s">
         <v>35</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>37</v>
       </c>
       <c r="AK22" s="1">
         <v>0.93203999999999998</v>
@@ -1804,86 +1933,89 @@
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.98798076923076905</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.99516908212560296</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.99637243047158397</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.99518072289156601</v>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1">
+        <v>3</v>
       </c>
       <c r="M23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="U23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="Y23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="Z23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="AA23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="AB23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AC23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AD23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AE23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AD23" s="1" t="s">
+      <c r="AF23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE23" s="1" t="s">
+      <c r="AG23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF23" s="1" t="s">
+      <c r="AH23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AG23" s="1" t="s">
+      <c r="AI23" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="AH23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="AJ23" s="4"/>
       <c r="AL23" s="4"/>
@@ -1907,162 +2039,171 @@
       <c r="A24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.99490000000000001</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.99470000000000003</v>
+      <c r="F24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:53">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="1">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.99760000000000004</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.99519999999999997</v>
+      <c r="F25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="M25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" t="s">
         <v>38</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>39</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
         <v>40</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>41</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>42</v>
       </c>
-      <c r="R25" t="s">
+      <c r="T25" t="s">
         <v>43</v>
       </c>
-      <c r="S25" t="s">
+      <c r="U25" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" t="s">
         <v>44</v>
       </c>
-      <c r="T25" t="s">
+      <c r="W25" t="s">
         <v>45</v>
       </c>
-      <c r="U25" t="s">
-        <v>24</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="X25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
+      <c r="Y25" t="s">
         <v>47</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Z25" t="s">
         <v>48</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="AA25" t="s">
         <v>49</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AB25" t="s">
         <v>50</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AC25" t="s">
         <v>51</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AD25" t="s">
         <v>52</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AE25" t="s">
         <v>53</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AF25" t="s">
         <v>54</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AG25" t="s">
         <v>55</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>56</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AI25" t="s">
         <v>57</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AJ25" t="s">
         <v>58</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AL25" t="s">
         <v>59</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AM25" t="s">
         <v>60</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AN25" t="s">
         <v>61</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AO25" t="s">
         <v>62</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AP25" t="s">
         <v>63</v>
       </c>
-      <c r="AO25" t="s">
+      <c r="AQ25" t="s">
         <v>64</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AR25" t="s">
         <v>65</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AS25" t="s">
         <v>66</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AT25" t="s">
         <v>67</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AU25" t="s">
         <v>68</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AV25" t="s">
         <v>69</v>
       </c>
-      <c r="AU25" t="s">
+      <c r="AW25" t="s">
         <v>70</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AX25" t="s">
         <v>71</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:53">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="1">
-        <v>0.98839999999999995</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0.99139999999999995</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.99139999999999995</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.99419999999999997</v>
+      <c r="F26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2180,17 +2321,20 @@
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="1">
-        <v>0.983657074149764</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.99141595221128398</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.99249895689548695</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.992222579085689</v>
+      <c r="F27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2230,71 +2374,128 @@
     </row>
     <row r="28" spans="1:53">
       <c r="A28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.99051999999999896</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.99168999999999896</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.99143000000000003</v>
+        <v>99</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:53">
       <c r="A29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.98316000000000003</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0.99092999999999998</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.99172000000000005</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.99170999999999998</v>
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:53">
       <c r="A30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.98107</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0.99046999999999996</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.99138000000000004</v>
+        <v>9</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:53">
       <c r="A31" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28">
+        <v>101</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53">
+      <c r="A32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="F33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="K33" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -2313,7 +2514,7 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="2:28">
+    <row r="34" spans="1:28">
       <c r="E34" s="3"/>
       <c r="H34" s="3"/>
       <c r="K34" s="3"/>
@@ -2324,6 +2525,188 @@
       <c r="Z34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
+    <row r="38" spans="1:28">
+      <c r="B38">
+        <v>25</v>
+      </c>
+      <c r="C38" s="2">
+        <v>50</v>
+      </c>
+      <c r="D38" s="11">
+        <v>75</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="B40" s="1">
+        <v>400</v>
+      </c>
+      <c r="C40" s="5">
+        <v>300</v>
+      </c>
+      <c r="D40" s="1">
+        <v>200</v>
+      </c>
+      <c r="E40" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="B41" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="B43" s="1">
+        <v>0.98798076923076905</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0.99516908212560296</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.99637243047158397</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.99518072289156601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="B44" s="1">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.99470000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="B45" s="1">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.99519999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="B46" s="1">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.99419999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="B47" s="1">
+        <v>0.983657074149764</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.99141595221128398</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.99249895689548695</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.992222579085689</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="B48" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0.99051999999999896</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.99168999999999896</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.99143000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="1">
+        <v>0.98316000000000003</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.99092999999999998</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.99172000000000005</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.99170999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="1">
+        <v>0.98107</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.99046999999999996</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.99138000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="AB7:AC14">
     <cfRule type="colorScale" priority="91">
@@ -2433,7 +2816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="C49">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -2445,7 +2828,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C50">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -2457,7 +2840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C47">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -2469,7 +2852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C48">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -2481,7 +2864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C43">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -2493,7 +2876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C44">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -2505,7 +2888,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C45">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -2517,7 +2900,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="C46">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -2529,7 +2912,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 C23">
+  <conditionalFormatting sqref="C43">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -2541,7 +2924,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30 F29">
+  <conditionalFormatting sqref="B50:C50">
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
@@ -2553,7 +2936,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29 F28">
+  <conditionalFormatting sqref="B49:C49">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -2565,7 +2948,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C28 F27">
+  <conditionalFormatting sqref="B48:C48">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -2577,7 +2960,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27 F26">
+  <conditionalFormatting sqref="B47:C47">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -2589,7 +2972,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:C26 F25">
+  <conditionalFormatting sqref="B46:C46">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -2601,7 +2984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:C25 F24">
+  <conditionalFormatting sqref="B45:C45">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -2613,7 +2996,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C24 F23">
+  <conditionalFormatting sqref="B44:C44">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
@@ -2625,7 +3008,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C23 F22">
+  <conditionalFormatting sqref="B43:C43">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
@@ -2637,7 +3020,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:D23 F22">
+  <conditionalFormatting sqref="B43:D43">
     <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
@@ -2649,7 +3032,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:D24 F23">
+  <conditionalFormatting sqref="B44:D44">
     <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
@@ -2661,7 +3044,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:D25 F24">
+  <conditionalFormatting sqref="B45:D45">
     <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
@@ -2673,7 +3056,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:D26 F25">
+  <conditionalFormatting sqref="B46:D46">
     <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
@@ -2685,7 +3068,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:D27 F26">
+  <conditionalFormatting sqref="B47:D47">
     <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
@@ -2697,7 +3080,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:D28 F27">
+  <conditionalFormatting sqref="B48:D48">
     <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
@@ -2709,7 +3092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:D29 F28">
+  <conditionalFormatting sqref="B49:D49">
     <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
@@ -2721,7 +3104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:D30 F29">
+  <conditionalFormatting sqref="B50:D50">
     <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
@@ -2733,7 +3116,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:E23 F22 H22">
+  <conditionalFormatting sqref="B43:E43">
     <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
@@ -2745,7 +3128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:E24 F23 H23">
+  <conditionalFormatting sqref="B44:E44">
     <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
@@ -2757,7 +3140,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:E25 F24 H24">
+  <conditionalFormatting sqref="B45:E45">
     <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
@@ -2769,7 +3152,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:E26 F25 H25">
+  <conditionalFormatting sqref="B46:E46">
     <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
@@ -2781,7 +3164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:E27 F26 H26">
+  <conditionalFormatting sqref="B47:E47">
     <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
@@ -2793,7 +3176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:E28 F27 H27">
+  <conditionalFormatting sqref="B48:E48">
     <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
@@ -2805,7 +3188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:E29 F28 H28">
+  <conditionalFormatting sqref="B49:E49">
     <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
@@ -2817,7 +3200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:E30 F29 H29">
+  <conditionalFormatting sqref="B50:E50">
     <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
@@ -2829,7 +3212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:E23">
+  <conditionalFormatting sqref="B43:E43">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -2841,7 +3224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:E24">
+  <conditionalFormatting sqref="B44:E44">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -2853,7 +3236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:E25">
+  <conditionalFormatting sqref="B45:E45">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -2865,7 +3248,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:E26">
+  <conditionalFormatting sqref="B46:E46">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -2877,7 +3260,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:E27">
+  <conditionalFormatting sqref="B47:E47">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -2889,7 +3272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:E28">
+  <conditionalFormatting sqref="B48:E48">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -2901,7 +3284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:E29">
+  <conditionalFormatting sqref="B49:E49">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -2913,7 +3296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:E30">
+  <conditionalFormatting sqref="B50:E50">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3069,7 +3452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12 J12">
+  <conditionalFormatting sqref="D12 K12">
     <cfRule type="colorScale" priority="210">
       <colorScale>
         <cfvo type="min"/>
@@ -3081,7 +3464,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13 J13">
+  <conditionalFormatting sqref="K13 D13">
     <cfRule type="colorScale" priority="213">
       <colorScale>
         <cfvo type="min"/>
@@ -3093,7 +3476,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14 C14">
+  <conditionalFormatting sqref="K14 D14">
     <cfRule type="colorScale" priority="216">
       <colorScale>
         <cfvo type="min"/>
@@ -3105,7 +3488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15 J15">
+  <conditionalFormatting sqref="D15 K15">
     <cfRule type="colorScale" priority="219">
       <colorScale>
         <cfvo type="min"/>
@@ -3129,7 +3512,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF11:AJ11 J12">
+  <conditionalFormatting sqref="AF11:AJ11 K12">
     <cfRule type="colorScale" priority="267">
       <colorScale>
         <cfvo type="min"/>
@@ -3141,7 +3524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF12:AJ12 J13">
+  <conditionalFormatting sqref="AF12:AJ12 K13">
     <cfRule type="colorScale" priority="270">
       <colorScale>
         <cfvo type="min"/>
@@ -3153,7 +3536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF13:AJ13 J14">
+  <conditionalFormatting sqref="AF13:AJ13 K14">
     <cfRule type="colorScale" priority="273">
       <colorScale>
         <cfvo type="min"/>
@@ -3165,7 +3548,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF14:AJ14 J15">
+  <conditionalFormatting sqref="AF14:AJ14 K15">
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="min"/>
@@ -3177,7 +3560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="D12">
     <cfRule type="colorScale" priority="281">
       <colorScale>
         <cfvo type="min"/>
@@ -3189,7 +3572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="K13">
     <cfRule type="colorScale" priority="283">
       <colorScale>
         <cfvo type="min"/>
@@ -3201,7 +3584,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
+  <conditionalFormatting sqref="K14">
     <cfRule type="colorScale" priority="294">
       <colorScale>
         <cfvo type="min"/>
@@ -3213,7 +3596,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
+  <conditionalFormatting sqref="K15">
     <cfRule type="colorScale" priority="296">
       <colorScale>
         <cfvo type="min"/>
@@ -3225,7 +3608,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:H7 J7">
+  <conditionalFormatting sqref="C7:I7 K7">
     <cfRule type="colorScale" priority="302">
       <colorScale>
         <cfvo type="min"/>
@@ -3237,7 +3620,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:H8 J8">
+  <conditionalFormatting sqref="C8:I8 K8">
     <cfRule type="colorScale" priority="305">
       <colorScale>
         <cfvo type="min"/>
@@ -3249,7 +3632,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:H9 J9">
+  <conditionalFormatting sqref="C9:I9 K9">
     <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="min"/>
@@ -3261,19 +3644,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K10 B10:H10">
-    <cfRule type="colorScale" priority="311">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:H11 J11">
+  <conditionalFormatting sqref="C11:I11 K11">
     <cfRule type="colorScale" priority="314">
       <colorScale>
         <cfvo type="min"/>
@@ -3285,7 +3656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:H12 J12">
+  <conditionalFormatting sqref="C12:I12 K12">
     <cfRule type="colorScale" priority="317">
       <colorScale>
         <cfvo type="min"/>
@@ -3297,7 +3668,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:H13 J13">
+  <conditionalFormatting sqref="C13:I13 K13">
     <cfRule type="colorScale" priority="320">
       <colorScale>
         <cfvo type="min"/>
@@ -3309,7 +3680,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:H14 J14">
+  <conditionalFormatting sqref="C14:I14 K14">
     <cfRule type="colorScale" priority="323">
       <colorScale>
         <cfvo type="min"/>
@@ -3321,8 +3692,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:H15 J15">
+  <conditionalFormatting sqref="C15:I15 K15">
     <cfRule type="colorScale" priority="326">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:I10 K10">
+    <cfRule type="colorScale" priority="338">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Results/All vs healthy.xlsx
+++ b/Results/All vs healthy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romar\OneDrive\Documenten\Thesis\Test\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5350B68D-EB6D-42EF-BD78-F6DF14422CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1C12CB-729E-4474-B971-0F702913C220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-2835" windowWidth="16440" windowHeight="28320" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
   <si>
     <t>intersection</t>
   </si>
@@ -344,120 +344,6 @@
   </si>
   <si>
     <t>cv Spec</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.9915560916767189</t>
-  </si>
-  <si>
-    <t>0.9909</t>
-  </si>
-  <si>
-    <t>0.9928</t>
-  </si>
-  <si>
-    <t>0.9885</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.9911568875266731</t>
-  </si>
-  <si>
-    <t>0.9901399999999999</t>
-  </si>
-  <si>
-    <t>0.9895900000000001</t>
-  </si>
-  <si>
-    <t>0.9913900000000002</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.9951807228915662</t>
-  </si>
-  <si>
-    <t>0.9947</t>
-  </si>
-  <si>
-    <t>0.9952</t>
-  </si>
-  <si>
-    <t>0.9942</t>
-  </si>
-  <si>
-    <t>0.9932938569034906</t>
-  </si>
-  <si>
-    <t>0.9926400000000001</t>
-  </si>
-  <si>
-    <t>0.9933200000000001</t>
-  </si>
-  <si>
-    <t>0.9920399999999999</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.9963811821471653</t>
-  </si>
-  <si>
-    <t>0.9961</t>
-  </si>
-  <si>
-    <t>0.9976</t>
-  </si>
-  <si>
-    <t>0.9943</t>
-  </si>
-  <si>
-    <t>0.9939646056988455</t>
-  </si>
-  <si>
-    <t>0.9934100000000001</t>
-  </si>
-  <si>
-    <t>0.9944</t>
-  </si>
-  <si>
-    <t>0.9923699999999999</t>
-  </si>
-  <si>
-    <t>0.9939831528279183</t>
-  </si>
-  <si>
-    <t>0.9933</t>
-  </si>
-  <si>
-    <t>0.9934285394750277</t>
-  </si>
-  <si>
-    <t>0.99278</t>
-  </si>
-  <si>
-    <t>0.9923400000000002</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.9931600426163966</t>
-  </si>
-  <si>
-    <t>0.9924800000000001</t>
-  </si>
-  <si>
-    <t>0.99305</t>
-  </si>
-  <si>
-    <t>0.99203</t>
   </si>
 </sst>
 </file>
@@ -547,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -591,6 +477,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -908,7 +795,7 @@
   <dimension ref="A1:CT50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1818,6 +1705,18 @@
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="B21" s="1">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1">
+        <v>200</v>
+      </c>
+      <c r="D21" s="1">
+        <v>200</v>
+      </c>
+      <c r="E21" s="1">
+        <v>200</v>
+      </c>
       <c r="F21" s="1">
         <v>300</v>
       </c>
@@ -1838,20 +1737,32 @@
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>103</v>
+      <c r="B22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.2</v>
       </c>
       <c r="M22" t="s">
         <v>13</v>
@@ -1931,6 +1842,18 @@
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
         <v>3</v>
       </c>
       <c r="F23" s="1">
@@ -2039,40 +1962,66 @@
       <c r="A24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>104</v>
+      <c r="B24" s="18">
+        <v>0.98676293622141997</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0.99637243047158397</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0.99515738498789297</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0.99518072289156601</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0.99518072289156601</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0.99398315282791805</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0.99638118214716498</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0.99518072289156601</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="18">
+        <v>0.99155609167671799</v>
       </c>
     </row>
     <row r="25" spans="1:53">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>105</v>
+      <c r="B25" s="18">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="18">
+        <v>0.9909</v>
       </c>
       <c r="M25" t="s">
         <v>36</v>
@@ -2190,20 +2139,33 @@
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>106</v>
+      <c r="B26" s="18">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="C26" s="18">
+        <v>1</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0.99280000000000002</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="18">
+        <v>0.99280000000000002</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2321,20 +2283,33 @@
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>107</v>
+      <c r="B27" s="18">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="C27" s="18">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="D27" s="18">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="18">
+        <v>0.98850000000000005</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2376,125 +2351,198 @@
       <c r="A28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>108</v>
+      <c r="B28" s="18">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1</v>
+      </c>
+      <c r="H28" s="18">
+        <v>1</v>
+      </c>
+      <c r="I28" s="18">
+        <v>1</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:53">
       <c r="A29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>109</v>
+      <c r="B29" s="18">
+        <v>0.98632329442989597</v>
+      </c>
+      <c r="C29" s="18">
+        <v>0.99128794526264996</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0.99261801732972099</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0.99342454900538202</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0.99316004261639601</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0.99342853947502696</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0.99396460569884504</v>
+      </c>
+      <c r="I29" s="18">
+        <v>0.99329385690349004</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="18">
+        <v>0.99115688752667297</v>
       </c>
     </row>
     <row r="30" spans="1:53">
       <c r="A30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>110</v>
+      <c r="B30" s="18">
+        <v>0.98502999999999896</v>
+      </c>
+      <c r="C30" s="18">
+        <v>0.99036999999999897</v>
+      </c>
+      <c r="D30" s="18">
+        <v>0.99189000000000005</v>
+      </c>
+      <c r="E30" s="18">
+        <v>0.99283999999999994</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0.99248000000000003</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0.99278</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0.99341000000000002</v>
+      </c>
+      <c r="I30" s="18">
+        <v>0.99263999999999997</v>
+      </c>
+      <c r="J30" s="19"/>
+      <c r="K30" s="18">
+        <v>0.99013999999999902</v>
       </c>
     </row>
     <row r="31" spans="1:53">
       <c r="A31" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>111</v>
+      <c r="B31" s="18">
+        <v>0.98660999999999999</v>
+      </c>
+      <c r="C31" s="18">
+        <v>0.99064999999999903</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0.99251</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0.99383999999999995</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0.99304999999999999</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="I31" s="18">
+        <v>0.99331999999999998</v>
+      </c>
+      <c r="J31" s="19"/>
+      <c r="K31" s="18">
+        <v>0.98958999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:53">
       <c r="A32" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>112</v>
+      <c r="B32" s="18">
+        <v>0.98336999999999997</v>
+      </c>
+      <c r="C32" s="18">
+        <v>0.99043000000000003</v>
+      </c>
+      <c r="D32" s="18">
+        <v>0.99141999999999997</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0.99202999999999997</v>
+      </c>
+      <c r="G32" s="18">
+        <v>0.99234</v>
+      </c>
+      <c r="H32" s="18">
+        <v>0.99236999999999898</v>
+      </c>
+      <c r="I32" s="18">
+        <v>0.99203999999999903</v>
+      </c>
+      <c r="J32" s="19"/>
+      <c r="K32" s="18">
+        <v>0.99138999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="1" t="s">
-        <v>108</v>
+      <c r="B33" s="18">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18">
+        <v>1</v>
+      </c>
+      <c r="D33" s="18">
+        <v>1</v>
+      </c>
+      <c r="E33" s="18">
+        <v>1</v>
+      </c>
+      <c r="F33" s="18">
+        <v>1</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1</v>
+      </c>
+      <c r="H33" s="18">
+        <v>1</v>
+      </c>
+      <c r="I33" s="18">
+        <v>1</v>
+      </c>
+      <c r="J33" s="19"/>
+      <c r="K33" s="18">
+        <v>1</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -2709,6 +2757,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AB7:AC14">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB14:AC14">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB13:AC13">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB12:AC12">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB11:AC11">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB10:AC10">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB9:AC9">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -2720,80 +2840,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB14:AC14">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB13:AC13">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB12:AC12">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB11:AC11">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB10:AC10">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB9:AC9">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AC8">
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2805,7 +2853,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB7:AC7">
-    <cfRule type="colorScale" priority="79">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2817,7 +2865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2829,7 +2877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2841,7 +2889,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="colorScale" priority="96">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2853,7 +2901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="colorScale" priority="98">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2865,7 +2913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="colorScale" priority="100">
+    <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2877,7 +2925,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="colorScale" priority="102">
+    <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2889,7 +2937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="colorScale" priority="104">
+    <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2901,7 +2949,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="colorScale" priority="106">
+    <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2913,7 +2961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="colorScale" priority="108">
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2925,7 +2973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:C50">
-    <cfRule type="colorScale" priority="111">
+    <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2937,7 +2985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:C49">
-    <cfRule type="colorScale" priority="114">
+    <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2949,7 +2997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:C48">
-    <cfRule type="colorScale" priority="117">
+    <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2961,7 +3009,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:C47">
-    <cfRule type="colorScale" priority="120">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2973,7 +3021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:C46">
-    <cfRule type="colorScale" priority="123">
+    <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2985,7 +3033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:C45">
-    <cfRule type="colorScale" priority="126">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2997,7 +3045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:C44">
-    <cfRule type="colorScale" priority="129">
+    <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3009,7 +3057,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:C43">
-    <cfRule type="colorScale" priority="132">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3021,7 +3069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:D43">
-    <cfRule type="colorScale" priority="135">
+    <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3033,7 +3081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:D44">
-    <cfRule type="colorScale" priority="137">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3045,7 +3093,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:D45">
-    <cfRule type="colorScale" priority="139">
+    <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3057,7 +3105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:D46">
-    <cfRule type="colorScale" priority="141">
+    <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3069,7 +3117,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:D47">
-    <cfRule type="colorScale" priority="143">
+    <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3081,7 +3129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:D48">
-    <cfRule type="colorScale" priority="145">
+    <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3093,7 +3141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:D49">
-    <cfRule type="colorScale" priority="147">
+    <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3105,7 +3153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:D50">
-    <cfRule type="colorScale" priority="149">
+    <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3117,7 +3165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:E43">
-    <cfRule type="colorScale" priority="151">
+    <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3129,7 +3177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:E44">
-    <cfRule type="colorScale" priority="153">
+    <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3141,7 +3189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:E45">
-    <cfRule type="colorScale" priority="155">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3153,7 +3201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:E46">
-    <cfRule type="colorScale" priority="157">
+    <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3165,7 +3213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:E47">
-    <cfRule type="colorScale" priority="159">
+    <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3177,7 +3225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:E48">
-    <cfRule type="colorScale" priority="161">
+    <cfRule type="colorScale" priority="171">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3189,7 +3237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:E49">
-    <cfRule type="colorScale" priority="163">
+    <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3201,7 +3249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:E50">
-    <cfRule type="colorScale" priority="165">
+    <cfRule type="colorScale" priority="175">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3213,7 +3261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:E43">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3225,7 +3273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:E44">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3237,7 +3285,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:E45">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3249,6 +3297,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:E46">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:E47">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:E48">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:E49">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:E50">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI12:AJ12 N22">
+    <cfRule type="colorScale" priority="179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI13:AJ13">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH12:AJ12 N22">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -3260,7 +3392,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:E47">
+  <conditionalFormatting sqref="AH13:AJ13">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -3272,19 +3404,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:E48">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:E49">
+  <conditionalFormatting sqref="AF14:AJ14">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -3296,7 +3416,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:E50">
+  <conditionalFormatting sqref="AF13:AJ13">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3308,80 +3428,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI12:AJ12 N22">
-    <cfRule type="colorScale" priority="169">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI13:AJ13">
-    <cfRule type="colorScale" priority="172">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH12:AJ12 N22">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH13:AJ13">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14:AJ14">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13:AJ13">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AF12:AJ12">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3393,7 +3441,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AJ11">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3405,7 +3453,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI14:AJ14">
-    <cfRule type="colorScale" priority="173">
+    <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3417,7 +3465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI11:AJ11">
-    <cfRule type="colorScale" priority="174">
+    <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3429,7 +3477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11:AJ11">
-    <cfRule type="colorScale" priority="177">
+    <cfRule type="colorScale" priority="187">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3441,55 +3489,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14:AJ14">
-    <cfRule type="colorScale" priority="180">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12 K12">
-    <cfRule type="colorScale" priority="210">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13 D13">
-    <cfRule type="colorScale" priority="213">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14 D14">
-    <cfRule type="colorScale" priority="216">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15 K15">
-    <cfRule type="colorScale" priority="219">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12 D12">
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13 K13">
+    <cfRule type="colorScale" priority="223">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 K14">
+    <cfRule type="colorScale" priority="226">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15 D15">
+    <cfRule type="colorScale" priority="229">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3501,7 +3549,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AJ14">
-    <cfRule type="colorScale" priority="265">
+    <cfRule type="colorScale" priority="275">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3513,7 +3561,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AJ11 K12">
-    <cfRule type="colorScale" priority="267">
+    <cfRule type="colorScale" priority="277">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3525,7 +3573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF12:AJ12 K13">
-    <cfRule type="colorScale" priority="270">
+    <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3537,7 +3585,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AJ13 K14">
-    <cfRule type="colorScale" priority="273">
+    <cfRule type="colorScale" priority="283">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3549,7 +3597,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF14:AJ14 K15">
-    <cfRule type="colorScale" priority="276">
+    <cfRule type="colorScale" priority="286">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3561,7 +3609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="colorScale" priority="281">
+    <cfRule type="colorScale" priority="291">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3573,7 +3621,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="colorScale" priority="283">
+    <cfRule type="colorScale" priority="293">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3585,7 +3633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="colorScale" priority="294">
+    <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3597,7 +3645,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="colorScale" priority="296">
+    <cfRule type="colorScale" priority="306">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3609,7 +3657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I7 K7">
-    <cfRule type="colorScale" priority="302">
+    <cfRule type="colorScale" priority="312">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3621,7 +3669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:I8 K8">
-    <cfRule type="colorScale" priority="305">
+    <cfRule type="colorScale" priority="315">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3633,7 +3681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:I9 K9">
-    <cfRule type="colorScale" priority="308">
+    <cfRule type="colorScale" priority="318">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3645,7 +3693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:I11 K11">
-    <cfRule type="colorScale" priority="314">
+    <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3657,7 +3705,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:I12 K12">
-    <cfRule type="colorScale" priority="317">
+    <cfRule type="colorScale" priority="327">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3669,7 +3717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:I13 K13">
-    <cfRule type="colorScale" priority="320">
+    <cfRule type="colorScale" priority="330">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3681,7 +3729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:I14 K14">
-    <cfRule type="colorScale" priority="323">
+    <cfRule type="colorScale" priority="333">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3693,7 +3741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:I15 K15">
-    <cfRule type="colorScale" priority="326">
+    <cfRule type="colorScale" priority="336">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3705,7 +3753,127 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:I10 K10">
-    <cfRule type="colorScale" priority="338">
+    <cfRule type="colorScale" priority="348">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:K24">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:K25">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:K26">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:K27">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:K28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:K29">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:K30">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:K31">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:K32">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:K33">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Results/All vs healthy.xlsx
+++ b/Results/All vs healthy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romar\OneDrive\Documenten\Thesis\Test\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomarNathoeRepubliq\Documents\GitHub\Test\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1C12CB-729E-4474-B971-0F702913C220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FBB4DE-4BD8-4401-A523-B93CA156D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-2835" windowWidth="16440" windowHeight="28320" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -795,7 +795,7 @@
   <dimension ref="A1:CT50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -874,6 +874,9 @@
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="3">
+        <v>9</v>
+      </c>
       <c r="C3">
         <v>22</v>
       </c>
@@ -919,6 +922,9 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="1">
+        <v>200</v>
+      </c>
       <c r="C4" s="1">
         <v>200</v>
       </c>
@@ -975,6 +981,9 @@
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="B5" s="1">
+        <v>0.2</v>
+      </c>
       <c r="C5" s="1">
         <v>0.1</v>
       </c>
@@ -1031,6 +1040,9 @@
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -1087,6 +1099,9 @@
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="18">
+        <v>0.99348298334540097</v>
+      </c>
       <c r="C7" s="18">
         <v>0.99783705839942305</v>
       </c>
@@ -1143,6 +1158,9 @@
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="B8" s="18">
+        <v>0.99150000000000005</v>
+      </c>
       <c r="C8" s="18">
         <v>0.99580000000000002</v>
       </c>
@@ -1199,6 +1217,9 @@
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="B9" s="18">
+        <v>0.99850000000000005</v>
+      </c>
       <c r="C9" s="18">
         <v>0.99860000000000004</v>
       </c>
@@ -1255,6 +1276,9 @@
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="B10" s="18">
+        <v>0.95740000000000003</v>
+      </c>
       <c r="C10" s="18">
         <v>0.98899999999999999</v>
       </c>
@@ -1311,6 +1335,9 @@
       <c r="A11" s="7" t="s">
         <v>99</v>
       </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
       <c r="C11" s="18">
         <v>1</v>
       </c>
@@ -1367,6 +1394,9 @@
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="B12" s="18">
+        <v>0.99295329644409902</v>
+      </c>
       <c r="C12" s="18">
         <v>0.996925848313723</v>
       </c>
@@ -1423,6 +1453,9 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="B13" s="18">
+        <v>0.98432999999999904</v>
+      </c>
       <c r="C13" s="18">
         <v>0.99539</v>
       </c>
@@ -1479,6 +1512,9 @@
       <c r="A14" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="B14" s="18">
+        <v>0.99388999999999905</v>
+      </c>
       <c r="C14" s="18">
         <v>0.99892000000000003</v>
       </c>
@@ -1535,6 +1571,9 @@
       <c r="A15" s="7" t="s">
         <v>102</v>
       </c>
+      <c r="B15" s="18">
+        <v>0.97055999999999998</v>
+      </c>
       <c r="C15" s="18">
         <v>0.98110999999999904</v>
       </c>
@@ -1563,6 +1602,9 @@
     <row r="16" spans="1:98">
       <c r="A16" s="8" t="s">
         <v>100</v>
+      </c>
+      <c r="B16" s="18">
+        <v>1</v>
       </c>
       <c r="C16" s="18">
         <v>1</v>
@@ -3500,7 +3542,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12 D12">
+  <conditionalFormatting sqref="D12 K12">
     <cfRule type="colorScale" priority="220">
       <colorScale>
         <cfvo type="min"/>
@@ -3512,7 +3554,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13 K13">
+  <conditionalFormatting sqref="K13 D13">
     <cfRule type="colorScale" priority="223">
       <colorScale>
         <cfvo type="min"/>
@@ -3524,7 +3566,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14 K14">
+  <conditionalFormatting sqref="K14 D14">
     <cfRule type="colorScale" priority="226">
       <colorScale>
         <cfvo type="min"/>
@@ -3536,7 +3578,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15 D15">
+  <conditionalFormatting sqref="D15 K15">
     <cfRule type="colorScale" priority="229">
       <colorScale>
         <cfvo type="min"/>

--- a/Results/All vs healthy.xlsx
+++ b/Results/All vs healthy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomarNathoeRepubliq\Documents\GitHub\Test\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/406aaf9c23ac983a/Documenten/Thesis/Test/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FBB4DE-4BD8-4401-A523-B93CA156D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{C0FBB4DE-4BD8-4401-A523-B93CA156D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9994AE88-FD17-4FB4-83C2-BDECFEEDBF8F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
   <si>
     <t>intersection</t>
   </si>
@@ -792,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB534E20-7A20-4F67-9434-43B8E155F083}">
-  <dimension ref="A1:CT50"/>
+  <dimension ref="A1:CT52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -806,7 +806,8 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="11" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.140625" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2454,6 +2455,18 @@
       <c r="K29" s="18">
         <v>0.99115688752667297</v>
       </c>
+      <c r="P29">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>50</v>
+      </c>
+      <c r="R29" s="11">
+        <v>75</v>
+      </c>
+      <c r="S29">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:53">
       <c r="A30" s="7" t="s">
@@ -2487,6 +2500,18 @@
       <c r="K30" s="18">
         <v>0.99013999999999902</v>
       </c>
+      <c r="P30">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>27</v>
+      </c>
+      <c r="R30">
+        <v>38</v>
+      </c>
+      <c r="S30">
+        <v>57</v>
+      </c>
     </row>
     <row r="31" spans="1:53">
       <c r="A31" s="7" t="s">
@@ -2520,6 +2545,18 @@
       <c r="K31" s="18">
         <v>0.98958999999999997</v>
       </c>
+      <c r="P31" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>300</v>
+      </c>
+      <c r="R31" s="1">
+        <v>200</v>
+      </c>
+      <c r="S31" s="1">
+        <v>200</v>
+      </c>
     </row>
     <row r="32" spans="1:53">
       <c r="A32" s="7" t="s">
@@ -2552,6 +2589,18 @@
       <c r="J32" s="19"/>
       <c r="K32" s="18">
         <v>0.99138999999999999</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0.3</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -2590,10 +2639,18 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
+      <c r="P33" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>3</v>
+      </c>
+      <c r="R33" s="1">
+        <v>6</v>
+      </c>
+      <c r="S33" s="1">
+        <v>3</v>
+      </c>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
@@ -2609,196 +2666,666 @@
       <c r="H34" s="3"/>
       <c r="K34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="Q34" s="3"/>
+      <c r="P34" s="1">
+        <v>0.98798076923076905</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0.99516908212560296</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0.99637243047158397</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0.99518072289156601</v>
+      </c>
       <c r="T34" s="3"/>
       <c r="W34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
+    <row r="35" spans="1:28">
+      <c r="P35" s="1">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0.99470000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="P36" s="1">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0.99519999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0.99419999999999997</v>
+      </c>
+    </row>
     <row r="38" spans="1:28">
-      <c r="B38">
+      <c r="A38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="3">
         <v>25</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>50</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="3">
         <v>75</v>
       </c>
       <c r="E38">
         <v>100</v>
       </c>
+      <c r="F38" s="3">
+        <v>125</v>
+      </c>
+      <c r="G38">
+        <v>150</v>
+      </c>
+      <c r="H38" s="3">
+        <v>175</v>
+      </c>
+      <c r="I38">
+        <v>200</v>
+      </c>
+      <c r="K38" t="s">
+        <v>98</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.983657074149764</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>0.99141595221128398</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0.99249895689548695</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0.992222579085689</v>
+      </c>
     </row>
     <row r="39" spans="1:28">
-      <c r="B39">
-        <v>11</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="A39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="3">
+        <v>14</v>
+      </c>
+      <c r="C39">
         <v>27</v>
       </c>
       <c r="D39">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E39">
         <v>57</v>
       </c>
+      <c r="F39">
+        <v>70</v>
+      </c>
+      <c r="G39">
+        <v>90</v>
+      </c>
+      <c r="H39">
+        <v>109</v>
+      </c>
+      <c r="I39">
+        <v>128</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>0.99051999999999896</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0.99168999999999896</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0.99143000000000003</v>
+      </c>
     </row>
     <row r="40" spans="1:28">
+      <c r="A40" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="B40" s="1">
-        <v>400</v>
-      </c>
-      <c r="C40" s="5">
+        <v>200</v>
+      </c>
+      <c r="C40" s="1">
+        <v>200</v>
+      </c>
+      <c r="D40" s="1">
         <v>300</v>
-      </c>
-      <c r="D40" s="1">
-        <v>200</v>
       </c>
       <c r="E40" s="1">
         <v>200</v>
       </c>
+      <c r="F40" s="1">
+        <v>300</v>
+      </c>
+      <c r="G40" s="1">
+        <v>300</v>
+      </c>
+      <c r="H40" s="1">
+        <v>200</v>
+      </c>
+      <c r="I40" s="1">
+        <v>300</v>
+      </c>
+      <c r="K40" s="1">
+        <v>200</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.98316000000000003</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0.99092999999999998</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0.99172000000000005</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0.99170999999999998</v>
+      </c>
     </row>
     <row r="41" spans="1:28">
+      <c r="A41" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="B41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G41" s="1">
         <v>0.3</v>
       </c>
-      <c r="C41" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.3</v>
+      <c r="H41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.98107</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0.99046999999999996</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0.99138000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:28">
+      <c r="A42" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="B42" s="1">
         <v>5</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1">
         <v>3</v>
-      </c>
-      <c r="D42" s="1">
-        <v>6</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
       </c>
+      <c r="F42" s="1">
+        <v>4</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1">
+        <v>4</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
+      <c r="K42" s="1">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:28">
-      <c r="B43" s="1">
-        <v>0.98798076923076905</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0.99516908212560296</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.99637243047158397</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.99518072289156601</v>
+      <c r="A43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="18">
+        <v>0.99577039274924395</v>
+      </c>
+      <c r="C43" s="18">
+        <v>0.99818949909474897</v>
+      </c>
+      <c r="D43" s="18">
+        <v>0.99818731117824699</v>
+      </c>
+      <c r="E43" s="18">
+        <v>0.99939649969824895</v>
+      </c>
+      <c r="F43" s="18">
+        <v>0.99939649969824895</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1</v>
+      </c>
+      <c r="H43" s="18">
+        <v>1</v>
+      </c>
+      <c r="I43" s="18">
+        <v>1</v>
+      </c>
+      <c r="J43" s="19"/>
+      <c r="K43" s="18">
+        <v>0.99939722724532798</v>
       </c>
     </row>
     <row r="44" spans="1:28">
-      <c r="B44" s="1">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0.99490000000000001</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.99470000000000003</v>
+      <c r="A44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="18">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="C44" s="18">
+        <v>0.996</v>
+      </c>
+      <c r="D44" s="18">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="E44" s="18">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F44" s="18">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1</v>
+      </c>
+      <c r="H44" s="18">
+        <v>1</v>
+      </c>
+      <c r="I44" s="18">
+        <v>1</v>
+      </c>
+      <c r="J44" s="19"/>
+      <c r="K44" s="18">
+        <v>0.99729999999999996</v>
       </c>
     </row>
     <row r="45" spans="1:28">
-      <c r="B45" s="1">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="C45" s="6">
+      <c r="A45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="18">
         <v>0.99760000000000004</v>
       </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="C45" s="18">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="D45" s="18">
+        <v>1</v>
+      </c>
+      <c r="E45" s="18">
+        <v>1</v>
+      </c>
+      <c r="F45" s="18">
+        <v>1</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1</v>
+      </c>
+      <c r="H45" s="18">
+        <v>1</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1</v>
+      </c>
+      <c r="J45" s="19"/>
+      <c r="K45" s="18">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="18">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="C46" s="18">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="D46" s="18">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="E46" s="18">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="F46" s="18">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1</v>
+      </c>
+      <c r="J46" s="19"/>
+      <c r="K46" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="18">
+        <v>1</v>
+      </c>
+      <c r="C47" s="18">
+        <v>1</v>
+      </c>
+      <c r="D47" s="18">
+        <v>1</v>
+      </c>
+      <c r="E47" s="18">
+        <v>1</v>
+      </c>
+      <c r="F47" s="18">
+        <v>1</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1</v>
+      </c>
+      <c r="I47" s="18">
+        <v>1</v>
+      </c>
+      <c r="J47" s="19"/>
+      <c r="K47" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="18">
+        <v>0.99607387252627699</v>
+      </c>
+      <c r="C48" s="18">
+        <v>0.99698340188546797</v>
+      </c>
+      <c r="D48" s="18">
+        <v>0.99788792425953499</v>
+      </c>
+      <c r="E48" s="18">
+        <v>0.99803875588403201</v>
+      </c>
+      <c r="F48" s="18">
+        <v>0.99788746858730804</v>
+      </c>
+      <c r="G48" s="18">
+        <v>0.99788836759122801</v>
+      </c>
+      <c r="H48" s="18">
+        <v>0.99788883288375996</v>
+      </c>
+      <c r="I48" s="18">
+        <v>0.99773663214332398</v>
+      </c>
+      <c r="J48" s="19"/>
+      <c r="K48" s="18">
+        <v>0.99713468028239205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="18">
+        <v>0.99177000000000004</v>
+      </c>
+      <c r="C49" s="18">
+        <v>0.99265000000000003</v>
+      </c>
+      <c r="D49" s="18">
+        <v>0.99572000000000005</v>
+      </c>
+      <c r="E49" s="18">
+        <v>0.99587999999999999</v>
+      </c>
+      <c r="F49" s="18">
         <v>0.99519999999999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:28">
-      <c r="B46" s="1">
-        <v>0.98839999999999995</v>
-      </c>
-      <c r="C46" s="6">
-        <v>0.99139999999999995</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.99139999999999995</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.99419999999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28">
-      <c r="B47" s="1">
-        <v>0.983657074149764</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0.99141595221128398</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.99249895689548695</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.992222579085689</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28">
-      <c r="B48" s="1">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="C48" s="6">
-        <v>0.99051999999999896</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.99168999999999896</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.99143000000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="1">
-        <v>0.98316000000000003</v>
-      </c>
-      <c r="C49" s="6">
-        <v>0.99092999999999998</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.99172000000000005</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0.99170999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="1">
-        <v>0.98107</v>
-      </c>
-      <c r="C50" s="6">
-        <v>0.99046999999999996</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0.99138000000000004</v>
+      <c r="G49" s="18">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="H49" s="18">
+        <v>0.99519000000000002</v>
+      </c>
+      <c r="I49" s="18">
+        <v>0.99556999999999995</v>
+      </c>
+      <c r="J49" s="19"/>
+      <c r="K49" s="18">
+        <v>0.99282000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="18">
+        <v>0.99758999999999998</v>
+      </c>
+      <c r="C50" s="18">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="D50" s="18">
+        <v>0.99879999999999902</v>
+      </c>
+      <c r="E50" s="18">
+        <v>0.99879999999999902</v>
+      </c>
+      <c r="F50" s="18">
+        <v>0.99849999999999905</v>
+      </c>
+      <c r="G50" s="18">
+        <v>0.99849999999999905</v>
+      </c>
+      <c r="H50" s="18">
+        <v>0.99849999999999905</v>
+      </c>
+      <c r="I50" s="18">
+        <v>0.99879999999999902</v>
+      </c>
+      <c r="J50" s="19"/>
+      <c r="K50" s="18">
+        <v>0.99759999999999904</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="18">
+        <v>0.97563</v>
+      </c>
+      <c r="C51" s="18">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="D51" s="18">
+        <v>0.98637999999999904</v>
+      </c>
+      <c r="E51" s="18">
+        <v>0.98775000000000002</v>
+      </c>
+      <c r="F51" s="18">
+        <v>0.98773</v>
+      </c>
+      <c r="G51" s="18">
+        <v>0.98781999999999903</v>
+      </c>
+      <c r="H51" s="18">
+        <v>0.98773</v>
+      </c>
+      <c r="I51" s="18">
+        <v>0.98506000000000005</v>
+      </c>
+      <c r="J51" s="19"/>
+      <c r="K51" s="18">
+        <v>0.98500999999999905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="18">
+        <v>1</v>
+      </c>
+      <c r="C52" s="18">
+        <v>1</v>
+      </c>
+      <c r="D52" s="18">
+        <v>1</v>
+      </c>
+      <c r="E52" s="18">
+        <v>1</v>
+      </c>
+      <c r="F52" s="18">
+        <v>1</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1</v>
+      </c>
+      <c r="H52" s="18">
+        <v>1</v>
+      </c>
+      <c r="I52" s="18">
+        <v>1</v>
+      </c>
+      <c r="J52" s="19"/>
+      <c r="K52" s="18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AB7:AC14">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB14:AC14">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB13:AC13">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB12:AC12">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB11:AC11">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB10:AC10">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -2810,68 +3337,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB14:AC14">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB13:AC13">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB12:AC12">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB11:AC11">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB10:AC10">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AB9:AC9">
-    <cfRule type="colorScale" priority="91">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2883,7 +3350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AC8">
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2895,126 +3362,78 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB7:AC7">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:C50">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q40">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q38">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q39">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q34">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
@@ -3026,19 +3445,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:C49">
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:C48">
+  <conditionalFormatting sqref="Q36">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q37">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q34">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -3050,7 +3481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:C47">
+  <conditionalFormatting sqref="P41:Q41">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -3062,7 +3493,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:C46">
+  <conditionalFormatting sqref="P40:Q40">
     <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
@@ -3074,7 +3505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:C45">
+  <conditionalFormatting sqref="P39:Q39">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
@@ -3086,7 +3517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:C44">
+  <conditionalFormatting sqref="P38:Q38">
     <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
@@ -3098,7 +3529,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:C43">
+  <conditionalFormatting sqref="P37:Q37">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
@@ -3110,7 +3541,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:D43">
+  <conditionalFormatting sqref="P36:Q36">
     <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
@@ -3122,31 +3553,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:D44">
-    <cfRule type="colorScale" priority="147">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:D45">
-    <cfRule type="colorScale" priority="149">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46:D46">
+  <conditionalFormatting sqref="P35:Q35">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:Q34">
     <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
@@ -3158,199 +3577,319 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:D47">
-    <cfRule type="colorScale" priority="153">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:D48">
-    <cfRule type="colorScale" priority="155">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:D49">
-    <cfRule type="colorScale" priority="157">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:D50">
-    <cfRule type="colorScale" priority="159">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:E43">
-    <cfRule type="colorScale" priority="161">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:E44">
-    <cfRule type="colorScale" priority="163">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:E45">
-    <cfRule type="colorScale" priority="165">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46:E46">
-    <cfRule type="colorScale" priority="167">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:E47">
-    <cfRule type="colorScale" priority="169">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:E48">
-    <cfRule type="colorScale" priority="171">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:E49">
-    <cfRule type="colorScale" priority="173">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:E50">
-    <cfRule type="colorScale" priority="175">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:E43">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:E44">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:E45">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46:E46">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:E47">
+  <conditionalFormatting sqref="P34:R34">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:R35">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36:R36">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:R37">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:R38">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39:R39">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40:R40">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P41:R41">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:S34">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:S35">
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36:S36">
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:S37">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:S38">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39:S39">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40:S40">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P41:S41">
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:S34">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:S35">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36:S36">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:S37">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:S38">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39:S39">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40:S40">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P41:S41">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI12:AJ12 N22">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI13:AJ13">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH12:AJ12 N22">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -3362,7 +3901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:E48">
+  <conditionalFormatting sqref="AH13:AJ13">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -3374,19 +3913,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:E49">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:E50">
+  <conditionalFormatting sqref="AF14:AJ14">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -3398,68 +3925,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI12:AJ12 N22">
-    <cfRule type="colorScale" priority="179">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI13:AJ13">
-    <cfRule type="colorScale" priority="182">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH12:AJ12 N22">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH13:AJ13">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14:AJ14">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AJ13">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3471,7 +3938,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF12:AJ12">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3483,7 +3950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AJ11">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3495,7 +3962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI14:AJ14">
-    <cfRule type="colorScale" priority="183">
+    <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3507,7 +3974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI11:AJ11">
-    <cfRule type="colorScale" priority="184">
+    <cfRule type="colorScale" priority="193">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3519,7 +3986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11:AJ11">
-    <cfRule type="colorScale" priority="187">
+    <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3531,19 +3998,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14:AJ14">
-    <cfRule type="colorScale" priority="190">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12 K12">
-    <cfRule type="colorScale" priority="220">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12 D12">
+    <cfRule type="colorScale" priority="229">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3555,19 +4022,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13 D13">
-    <cfRule type="colorScale" priority="223">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14 D14">
-    <cfRule type="colorScale" priority="226">
+    <cfRule type="colorScale" priority="232">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 K14">
+    <cfRule type="colorScale" priority="235">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3579,7 +4046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15 K15">
-    <cfRule type="colorScale" priority="229">
+    <cfRule type="colorScale" priority="238">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3591,7 +4058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AJ14">
-    <cfRule type="colorScale" priority="275">
+    <cfRule type="colorScale" priority="284">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3603,7 +4070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AJ11 K12">
-    <cfRule type="colorScale" priority="277">
+    <cfRule type="colorScale" priority="286">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3615,7 +4082,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF12:AJ12 K13">
-    <cfRule type="colorScale" priority="280">
+    <cfRule type="colorScale" priority="289">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3627,7 +4094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AJ13 K14">
-    <cfRule type="colorScale" priority="283">
+    <cfRule type="colorScale" priority="292">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3639,7 +4106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF14:AJ14 K15">
-    <cfRule type="colorScale" priority="286">
+    <cfRule type="colorScale" priority="295">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3651,7 +4118,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="colorScale" priority="291">
+    <cfRule type="colorScale" priority="300">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3663,7 +4130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="colorScale" priority="293">
+    <cfRule type="colorScale" priority="302">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3675,7 +4142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="colorScale" priority="304">
+    <cfRule type="colorScale" priority="313">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3687,7 +4154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="colorScale" priority="306">
+    <cfRule type="colorScale" priority="315">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3699,7 +4166,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I7 K7">
-    <cfRule type="colorScale" priority="312">
+    <cfRule type="colorScale" priority="321">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3711,7 +4178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:I8 K8">
-    <cfRule type="colorScale" priority="315">
+    <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3723,7 +4190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:I9 K9">
-    <cfRule type="colorScale" priority="318">
+    <cfRule type="colorScale" priority="327">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3735,7 +4202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:I11 K11">
-    <cfRule type="colorScale" priority="324">
+    <cfRule type="colorScale" priority="333">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3747,7 +4214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:I12 K12">
-    <cfRule type="colorScale" priority="327">
+    <cfRule type="colorScale" priority="336">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3759,7 +4226,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:I13 K13">
-    <cfRule type="colorScale" priority="330">
+    <cfRule type="colorScale" priority="339">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3771,7 +4238,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:I14 K14">
-    <cfRule type="colorScale" priority="333">
+    <cfRule type="colorScale" priority="342">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3783,7 +4250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:I15 K15">
-    <cfRule type="colorScale" priority="336">
+    <cfRule type="colorScale" priority="345">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3795,7 +4262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:I10 K10">
-    <cfRule type="colorScale" priority="348">
+    <cfRule type="colorScale" priority="357">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3807,6 +4274,114 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:K24">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:K25">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:K26">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:K27">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:K28">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:K29">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:K30">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:K31">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:K32">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:K33">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3818,7 +4393,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:K25">
+  <conditionalFormatting sqref="B15:K15">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3830,7 +4405,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:K26">
+  <conditionalFormatting sqref="B14:K14">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3842,7 +4417,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:K27">
+  <conditionalFormatting sqref="B13:K13">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3854,7 +4429,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:K28">
+  <conditionalFormatting sqref="B12:K12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3866,7 +4441,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:K29">
+  <conditionalFormatting sqref="B11:K11">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3878,7 +4453,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:K30">
+  <conditionalFormatting sqref="B10:K10">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3890,7 +4465,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:K31">
+  <conditionalFormatting sqref="B9:K9">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3902,7 +4477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:K32">
+  <conditionalFormatting sqref="B8:K8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3914,7 +4489,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:K33">
+  <conditionalFormatting sqref="B7:K7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Results/All vs healthy.xlsx
+++ b/Results/All vs healthy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/406aaf9c23ac983a/Documenten/Thesis/Test/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{C0FBB4DE-4BD8-4401-A523-B93CA156D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9994AE88-FD17-4FB4-83C2-BDECFEEDBF8F}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{C0FBB4DE-4BD8-4401-A523-B93CA156D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3165798-553A-4A1C-B937-891FC7B367C9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB534E20-7A20-4F67-9434-43B8E155F083}">
   <dimension ref="A1:CT52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -806,7 +806,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.140625" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -3266,6 +3266,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AB7:AC14">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB14:AC14">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB13:AC13">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB12:AC12">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB11:AC11">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB10:AC10">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB9:AC9">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -3277,80 +3349,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB14:AC14">
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB13:AC13">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB12:AC12">
-    <cfRule type="colorScale" priority="103">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB11:AC11">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB10:AC10">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB9:AC9">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AC8">
-    <cfRule type="colorScale" priority="99">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3362,7 +3362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB7:AC7">
-    <cfRule type="colorScale" priority="98">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3374,7 +3374,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q40">
-    <cfRule type="colorScale" priority="111">
+    <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3386,7 +3386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41">
-    <cfRule type="colorScale" priority="113">
+    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3398,7 +3398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38">
-    <cfRule type="colorScale" priority="115">
+    <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3410,7 +3410,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q39">
-    <cfRule type="colorScale" priority="117">
+    <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3422,7 +3422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="colorScale" priority="119">
+    <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3434,7 +3434,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35">
-    <cfRule type="colorScale" priority="121">
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3446,7 +3446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q36">
-    <cfRule type="colorScale" priority="123">
+    <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3458,7 +3458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37">
-    <cfRule type="colorScale" priority="125">
+    <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3470,7 +3470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="colorScale" priority="127">
+    <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3482,7 +3482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41">
-    <cfRule type="colorScale" priority="130">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3494,7 +3494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P40:Q40">
-    <cfRule type="colorScale" priority="133">
+    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3506,7 +3506,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39:Q39">
-    <cfRule type="colorScale" priority="136">
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3518,7 +3518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38:Q38">
-    <cfRule type="colorScale" priority="139">
+    <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3530,7 +3530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:Q37">
-    <cfRule type="colorScale" priority="142">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3542,7 +3542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36:Q36">
-    <cfRule type="colorScale" priority="145">
+    <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3554,7 +3554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:Q35">
-    <cfRule type="colorScale" priority="148">
+    <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3566,7 +3566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:Q34">
-    <cfRule type="colorScale" priority="151">
+    <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3578,7 +3578,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:R34">
-    <cfRule type="colorScale" priority="154">
+    <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3590,7 +3590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:R35">
-    <cfRule type="colorScale" priority="156">
+    <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3602,7 +3602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36:R36">
-    <cfRule type="colorScale" priority="158">
+    <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3614,7 +3614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:R37">
-    <cfRule type="colorScale" priority="160">
+    <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3626,7 +3626,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38:R38">
-    <cfRule type="colorScale" priority="162">
+    <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3638,7 +3638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39:R39">
-    <cfRule type="colorScale" priority="164">
+    <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3650,7 +3650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P40:R40">
-    <cfRule type="colorScale" priority="166">
+    <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3662,7 +3662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:R41">
-    <cfRule type="colorScale" priority="168">
+    <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3674,7 +3674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:S34">
-    <cfRule type="colorScale" priority="170">
+    <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3686,7 +3686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:S35">
-    <cfRule type="colorScale" priority="172">
+    <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3698,7 +3698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36:S36">
-    <cfRule type="colorScale" priority="174">
+    <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3710,7 +3710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:S37">
-    <cfRule type="colorScale" priority="176">
+    <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3722,7 +3722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38:S38">
-    <cfRule type="colorScale" priority="178">
+    <cfRule type="colorScale" priority="188">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3734,7 +3734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39:S39">
-    <cfRule type="colorScale" priority="180">
+    <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3746,7 +3746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P40:S40">
-    <cfRule type="colorScale" priority="182">
+    <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3758,7 +3758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:S41">
-    <cfRule type="colorScale" priority="184">
+    <cfRule type="colorScale" priority="194">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3770,7 +3770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:S34">
-    <cfRule type="colorScale" priority="68">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3782,7 +3782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:S35">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3794,7 +3794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36:S36">
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3806,6 +3806,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:S37">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:S38">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39:S39">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40:S40">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P41:S41">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI12:AJ12 N22">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI13:AJ13">
+    <cfRule type="colorScale" priority="201">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH12:AJ12 N22">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -3817,7 +3901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P38:S38">
+  <conditionalFormatting sqref="AH13:AJ13">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -3829,19 +3913,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P39:S39">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P40:S40">
+  <conditionalFormatting sqref="AF14:AJ14">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -3853,7 +3925,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P41:S41">
+  <conditionalFormatting sqref="AF13:AJ13">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -3865,80 +3937,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI12:AJ12 N22">
-    <cfRule type="colorScale" priority="188">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI13:AJ13">
-    <cfRule type="colorScale" priority="191">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH12:AJ12 N22">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH13:AJ13">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14:AJ14">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13:AJ13">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AF12:AJ12">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3950,7 +3950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AJ11">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3962,7 +3962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI14:AJ14">
-    <cfRule type="colorScale" priority="192">
+    <cfRule type="colorScale" priority="202">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3974,7 +3974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI11:AJ11">
-    <cfRule type="colorScale" priority="193">
+    <cfRule type="colorScale" priority="203">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3986,7 +3986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11:AJ11">
-    <cfRule type="colorScale" priority="196">
+    <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3998,55 +3998,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14:AJ14">
-    <cfRule type="colorScale" priority="199">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12 D12">
-    <cfRule type="colorScale" priority="229">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13 D13">
-    <cfRule type="colorScale" priority="232">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14 K14">
-    <cfRule type="colorScale" priority="235">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15 K15">
-    <cfRule type="colorScale" priority="238">
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12 K12">
+    <cfRule type="colorScale" priority="239">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13 K13">
+    <cfRule type="colorScale" priority="242">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14 D14">
+    <cfRule type="colorScale" priority="245">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15 D15">
+    <cfRule type="colorScale" priority="248">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4058,7 +4058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AJ14">
-    <cfRule type="colorScale" priority="284">
+    <cfRule type="colorScale" priority="294">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4070,7 +4070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AJ11 K12">
-    <cfRule type="colorScale" priority="286">
+    <cfRule type="colorScale" priority="296">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4082,7 +4082,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF12:AJ12 K13">
-    <cfRule type="colorScale" priority="289">
+    <cfRule type="colorScale" priority="299">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4094,7 +4094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AJ13 K14">
-    <cfRule type="colorScale" priority="292">
+    <cfRule type="colorScale" priority="302">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4106,7 +4106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF14:AJ14 K15">
-    <cfRule type="colorScale" priority="295">
+    <cfRule type="colorScale" priority="305">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4118,7 +4118,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="colorScale" priority="300">
+    <cfRule type="colorScale" priority="310">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4130,7 +4130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="colorScale" priority="302">
+    <cfRule type="colorScale" priority="312">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4142,7 +4142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="colorScale" priority="313">
+    <cfRule type="colorScale" priority="323">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4154,7 +4154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="colorScale" priority="315">
+    <cfRule type="colorScale" priority="325">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4166,7 +4166,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I7 K7">
-    <cfRule type="colorScale" priority="321">
+    <cfRule type="colorScale" priority="331">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4178,7 +4178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:I8 K8">
-    <cfRule type="colorScale" priority="324">
+    <cfRule type="colorScale" priority="334">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4190,7 +4190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:I9 K9">
-    <cfRule type="colorScale" priority="327">
+    <cfRule type="colorScale" priority="337">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4202,7 +4202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:I11 K11">
-    <cfRule type="colorScale" priority="333">
+    <cfRule type="colorScale" priority="343">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4214,7 +4214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:I12 K12">
-    <cfRule type="colorScale" priority="336">
+    <cfRule type="colorScale" priority="346">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4226,7 +4226,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:I13 K13">
-    <cfRule type="colorScale" priority="339">
+    <cfRule type="colorScale" priority="349">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4238,7 +4238,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:I14 K14">
-    <cfRule type="colorScale" priority="342">
+    <cfRule type="colorScale" priority="352">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4250,7 +4250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:I15 K15">
-    <cfRule type="colorScale" priority="345">
+    <cfRule type="colorScale" priority="355">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4262,7 +4262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:I10 K10">
-    <cfRule type="colorScale" priority="357">
+    <cfRule type="colorScale" priority="367">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4274,6 +4274,126 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:K24">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:K25">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:K26">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:K27">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:K28">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:K29">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:K30">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:K31">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:K32">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:K33">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:K15">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -4285,7 +4405,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:K25">
+  <conditionalFormatting sqref="B14:K14">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -4297,7 +4417,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:K26">
+  <conditionalFormatting sqref="B13:K13">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -4309,7 +4429,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:K27">
+  <conditionalFormatting sqref="B12:K12">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -4321,7 +4441,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:K28">
+  <conditionalFormatting sqref="B11:K11">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -4333,7 +4453,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:K29">
+  <conditionalFormatting sqref="B10:K10">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -4345,7 +4465,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:K30">
+  <conditionalFormatting sqref="B9:K9">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -4357,7 +4477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:K31">
+  <conditionalFormatting sqref="B8:K8">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -4369,7 +4489,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:K32">
+  <conditionalFormatting sqref="B7:K7">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -4381,7 +4501,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:K33">
+  <conditionalFormatting sqref="B43:K43">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -4393,7 +4513,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:K15">
+  <conditionalFormatting sqref="B44:K44">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4405,7 +4525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:K14">
+  <conditionalFormatting sqref="B45:K45">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4417,7 +4537,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:K13">
+  <conditionalFormatting sqref="B46:K46">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4429,7 +4549,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:K12">
+  <conditionalFormatting sqref="B47:K47">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4441,7 +4561,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:K11">
+  <conditionalFormatting sqref="B48:K48">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4453,7 +4573,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:K10">
+  <conditionalFormatting sqref="B49:K49">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4465,7 +4585,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:K9">
+  <conditionalFormatting sqref="B50:K50">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4477,7 +4597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:K8">
+  <conditionalFormatting sqref="B51:K51">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4489,7 +4609,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:K7">
+  <conditionalFormatting sqref="B52:K52">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Results/All vs healthy.xlsx
+++ b/Results/All vs healthy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/406aaf9c23ac983a/Documenten/Thesis/Test/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{C0FBB4DE-4BD8-4401-A523-B93CA156D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3165798-553A-4A1C-B937-891FC7B367C9}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{C0FBB4DE-4BD8-4401-A523-B93CA156D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{232A05B5-F562-4408-9B1B-7F78D9A60EE1}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
   <si>
     <t>intersection</t>
   </si>
@@ -344,6 +344,36 @@
   </si>
   <si>
     <t>cv Spec</t>
+  </si>
+  <si>
+    <t>AML vs Healthy</t>
+  </si>
+  <si>
+    <t>'CCL5', 'HLA-E', 'RCN1', 'TGFBI', 'MYBL2', 'CD14', 'NUP214',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'COMMD3-BMI1', 'EPS8', 'TRAFD1', 'IGF1R', 'PRAME', 'P2RX4',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'APOC4-APOC2', 'TFF3', 'FPR1', 'HOXB6', 'FAM50B', 'WT1', 'GP1BB',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'FLT3', 'EDIL3', 'GPR171', 'MAML3', 'CDKN2A', 'ASAH1', 'TBC1D9B',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'ALDH1A1', 'LCN2', 'COL4A5', 'CDC42BPA', 'GPR65', 'CHRM3', 'HOXA1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'HBBP1', 'TRBV21-1', 'GOLM1', 'BZW2', 'DSG2', 'AKTIP', 'DNAAF5',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'LPAR6', 'SMYD3', 'DEPTOR', 'TIMM22', 'C3orf14', 'CXorf57', 'SLC27A5',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'PCDH9', 'NUDT11', 'VPREB3', 'PDZRN4', 'VPREB1', 'GDF15', 'CLIC4P1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'SH3BP4', 'TCL1A'</t>
   </si>
 </sst>
 </file>
@@ -792,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB534E20-7A20-4F67-9434-43B8E155F083}">
-  <dimension ref="A1:CT52"/>
+  <dimension ref="A1:CT65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:I48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2713,7 +2743,7 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="9" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="P37" s="1">
         <v>0.98839999999999995</v>
@@ -3132,7 +3162,7 @@
         <v>0.99713468028239205</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:94">
       <c r="A49" s="7" t="s">
         <v>9</v>
       </c>
@@ -3165,7 +3195,7 @@
         <v>0.99282000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:94">
       <c r="A50" s="7" t="s">
         <v>101</v>
       </c>
@@ -3198,7 +3228,7 @@
         <v>0.99759999999999904</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:94">
       <c r="A51" s="7" t="s">
         <v>102</v>
       </c>
@@ -3231,7 +3261,7 @@
         <v>0.98500999999999905</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:94">
       <c r="A52" s="8" t="s">
         <v>100</v>
       </c>
@@ -3262,6 +3292,140 @@
       <c r="J52" s="19"/>
       <c r="K52" s="18">
         <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:94">
+      <c r="E57" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:94">
+      <c r="E58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4"/>
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="4"/>
+      <c r="AK58" s="4"/>
+      <c r="AL58" s="4"/>
+      <c r="AM58" s="4"/>
+      <c r="AN58" s="4"/>
+      <c r="AO58" s="4"/>
+      <c r="AP58" s="4"/>
+      <c r="AQ58" s="4"/>
+      <c r="AR58" s="4"/>
+      <c r="AS58" s="4"/>
+      <c r="AT58" s="4"/>
+      <c r="AU58" s="4"/>
+      <c r="AV58" s="4"/>
+      <c r="AW58" s="4"/>
+      <c r="AX58" s="4"/>
+      <c r="AY58" s="4"/>
+      <c r="AZ58" s="4"/>
+      <c r="BA58" s="4"/>
+      <c r="BB58" s="4"/>
+      <c r="BC58" s="4"/>
+      <c r="BD58" s="4"/>
+      <c r="BE58" s="4"/>
+      <c r="BF58" s="4"/>
+      <c r="BG58" s="4"/>
+      <c r="BH58" s="4"/>
+      <c r="BI58" s="4"/>
+      <c r="BJ58" s="4"/>
+      <c r="BK58" s="4"/>
+      <c r="BL58" s="4"/>
+      <c r="BM58" s="4"/>
+      <c r="BN58" s="4"/>
+      <c r="BO58" s="4"/>
+      <c r="BP58" s="4"/>
+      <c r="BQ58" s="4"/>
+      <c r="BR58" s="4"/>
+      <c r="BS58" s="4"/>
+      <c r="BT58" s="4"/>
+      <c r="BU58" s="4"/>
+      <c r="BV58" s="4"/>
+      <c r="BW58" s="4"/>
+      <c r="BX58" s="4"/>
+      <c r="BY58" s="4"/>
+      <c r="BZ58" s="4"/>
+      <c r="CA58" s="4"/>
+      <c r="CB58" s="4"/>
+      <c r="CC58" s="4"/>
+      <c r="CD58" s="4"/>
+      <c r="CE58" s="4"/>
+      <c r="CF58" s="4"/>
+      <c r="CG58" s="4"/>
+      <c r="CH58" s="4"/>
+      <c r="CI58" s="4"/>
+      <c r="CJ58" s="4"/>
+      <c r="CK58" s="4"/>
+      <c r="CL58" s="4"/>
+      <c r="CM58" s="4"/>
+      <c r="CN58" s="4"/>
+      <c r="CO58" s="4"/>
+      <c r="CP58" s="4"/>
+    </row>
+    <row r="59" spans="1:94">
+      <c r="E59" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:94">
+      <c r="E60" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:94">
+      <c r="E61" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:94">
+      <c r="E62" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:94">
+      <c r="E63" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:94">
+      <c r="E64" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Results/All vs healthy.xlsx
+++ b/Results/All vs healthy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/406aaf9c23ac983a/Documenten/Thesis/Test/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romar\OneDrive\Documenten\Thesis\Test\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{C0FBB4DE-4BD8-4401-A523-B93CA156D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{232A05B5-F562-4408-9B1B-7F78D9A60EE1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A11172-B7F1-4D6B-AF19-A678A629D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
+    <workbookView xWindow="-16320" yWindow="-2835" windowWidth="16440" windowHeight="28320" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="118">
   <si>
     <t>intersection</t>
   </si>
@@ -374,6 +374,21 @@
   </si>
   <si>
     <t xml:space="preserve">       'SH3BP4', 'TCL1A'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aml vs healthy </t>
+  </si>
+  <si>
+    <t>not in literature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not in literature </t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
 </sst>
 </file>
@@ -463,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -508,6 +523,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -822,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB534E20-7A20-4F67-9434-43B8E155F083}">
-  <dimension ref="A1:CT65"/>
+  <dimension ref="A1:CT84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3423,13 +3439,796 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="5:5">
+    <row r="65" spans="1:10">
       <c r="E65" s="1" t="s">
         <v>112</v>
       </c>
     </row>
+    <row r="69" spans="1:10">
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" s="1">
+        <v>200</v>
+      </c>
+      <c r="C72" s="1">
+        <v>200</v>
+      </c>
+      <c r="F72" s="1">
+        <v>200</v>
+      </c>
+      <c r="G72" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="B73" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" s="1">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1">
+        <v>4</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" s="1">
+        <v>0.99819168173598505</v>
+      </c>
+      <c r="C75" s="18">
+        <v>0.99939649969824895</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.99855907780979802</v>
+      </c>
+      <c r="G75" s="18">
+        <v>0.99855907780979802</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76" s="1">
+        <v>0.99390000000000001</v>
+      </c>
+      <c r="C76" s="18">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="G76" s="18">
+        <v>0.99650000000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="B77" s="1">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="C77" s="18">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="G77" s="18">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="B78" s="1">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="C78" s="18">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="G78" s="18">
+        <v>0.99450000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="18">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="B80" s="1">
+        <v>0.99682981961378803</v>
+      </c>
+      <c r="C80" s="18">
+        <v>0.99803875588403201</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.99747225840085196</v>
+      </c>
+      <c r="G80" s="18">
+        <v>0.99819428830808499</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="1">
+        <v>0.99304000000000003</v>
+      </c>
+      <c r="C81" s="18">
+        <v>0.99587999999999999</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.99544999999999995</v>
+      </c>
+      <c r="G81" s="18">
+        <v>0.99666999999999994</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="1">
+        <v>0.99789999999999901</v>
+      </c>
+      <c r="C82" s="18">
+        <v>0.99879999999999902</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.99856</v>
+      </c>
+      <c r="G82" s="18">
+        <v>0.99891999999999903</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="1">
+        <v>0.98102999999999996</v>
+      </c>
+      <c r="C83" s="18">
+        <v>0.98775000000000002</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.98644999999999905</v>
+      </c>
+      <c r="G83" s="18">
+        <v>0.99051999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="18">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="AB7:AC14">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB14:AC14">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB13:AC13">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB12:AC12">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB11:AC11">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB10:AC10">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB9:AC9">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB8:AC8">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB7:AC7">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q40">
+    <cfRule type="colorScale" priority="169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41">
+    <cfRule type="colorScale" priority="171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q38">
+    <cfRule type="colorScale" priority="173">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q39">
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q34">
+    <cfRule type="colorScale" priority="177">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35">
+    <cfRule type="colorScale" priority="179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q36">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q37">
+    <cfRule type="colorScale" priority="183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q34">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P41:Q41">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40:Q40">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39:Q39">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:Q38">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:Q37">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36:Q36">
+    <cfRule type="colorScale" priority="203">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:Q35">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:Q34">
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:R34">
+    <cfRule type="colorScale" priority="212">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:R35">
+    <cfRule type="colorScale" priority="214">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36:R36">
+    <cfRule type="colorScale" priority="216">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:R37">
+    <cfRule type="colorScale" priority="218">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:R38">
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39:R39">
+    <cfRule type="colorScale" priority="222">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40:R40">
+    <cfRule type="colorScale" priority="224">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P41:R41">
+    <cfRule type="colorScale" priority="226">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:S34">
+    <cfRule type="colorScale" priority="228">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:S35">
+    <cfRule type="colorScale" priority="230">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36:S36">
+    <cfRule type="colorScale" priority="232">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:S37">
+    <cfRule type="colorScale" priority="234">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:S38">
+    <cfRule type="colorScale" priority="236">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39:S39">
+    <cfRule type="colorScale" priority="238">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40:S40">
+    <cfRule type="colorScale" priority="240">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P41:S41">
+    <cfRule type="colorScale" priority="242">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:S34">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:S35">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36:S36">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:S37">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:S38">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39:S39">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40:S40">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -3441,31 +4240,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB14:AC14">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB13:AC13">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB12:AC12">
+  <conditionalFormatting sqref="P41:S41">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI12:AJ12 N22">
+    <cfRule type="colorScale" priority="246">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI13:AJ13">
+    <cfRule type="colorScale" priority="249">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH12:AJ12 N22">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -3477,7 +4288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB11:AC11">
+  <conditionalFormatting sqref="AH13:AJ13">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -3489,19 +4300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB10:AC10">
-    <cfRule type="colorScale" priority="111">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB9:AC9">
+  <conditionalFormatting sqref="AF14:AJ14">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -3513,7 +4312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB8:AC8">
+  <conditionalFormatting sqref="AF13:AJ13">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
@@ -3525,7 +4324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB7:AC7">
+  <conditionalFormatting sqref="AF12:AJ12">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -3537,415 +4336,331 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q40">
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q41">
-    <cfRule type="colorScale" priority="123">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q38">
-    <cfRule type="colorScale" priority="125">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q39">
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q34">
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q35">
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q36">
-    <cfRule type="colorScale" priority="133">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q37">
-    <cfRule type="colorScale" priority="135">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q34">
-    <cfRule type="colorScale" priority="137">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P41:Q41">
-    <cfRule type="colorScale" priority="140">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P40:Q40">
-    <cfRule type="colorScale" priority="143">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P39:Q39">
-    <cfRule type="colorScale" priority="146">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P38:Q38">
-    <cfRule type="colorScale" priority="149">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P37:Q37">
-    <cfRule type="colorScale" priority="152">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P36:Q36">
-    <cfRule type="colorScale" priority="155">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P35:Q35">
-    <cfRule type="colorScale" priority="158">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P34:Q34">
-    <cfRule type="colorScale" priority="161">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P34:R34">
-    <cfRule type="colorScale" priority="164">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P35:R35">
-    <cfRule type="colorScale" priority="166">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P36:R36">
-    <cfRule type="colorScale" priority="168">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P37:R37">
-    <cfRule type="colorScale" priority="170">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P38:R38">
-    <cfRule type="colorScale" priority="172">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P39:R39">
-    <cfRule type="colorScale" priority="174">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P40:R40">
-    <cfRule type="colorScale" priority="176">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P41:R41">
-    <cfRule type="colorScale" priority="178">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P34:S34">
-    <cfRule type="colorScale" priority="180">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P35:S35">
-    <cfRule type="colorScale" priority="182">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P36:S36">
-    <cfRule type="colorScale" priority="184">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P37:S37">
-    <cfRule type="colorScale" priority="186">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P38:S38">
-    <cfRule type="colorScale" priority="188">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P39:S39">
-    <cfRule type="colorScale" priority="190">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P40:S40">
-    <cfRule type="colorScale" priority="192">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P41:S41">
-    <cfRule type="colorScale" priority="194">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P34:S34">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P35:S35">
+  <conditionalFormatting sqref="AF11:AJ11">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI14:AJ14">
+    <cfRule type="colorScale" priority="250">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI11:AJ11">
+    <cfRule type="colorScale" priority="251">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH11:AJ11">
+    <cfRule type="colorScale" priority="254">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH14:AJ14">
+    <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12 D12">
+    <cfRule type="colorScale" priority="287">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13 D13">
+    <cfRule type="colorScale" priority="290">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 K14">
+    <cfRule type="colorScale" priority="293">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 K15">
+    <cfRule type="colorScale" priority="296">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11:AJ14">
+    <cfRule type="colorScale" priority="342">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11:AJ11 K12">
+    <cfRule type="colorScale" priority="344">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12:AJ12 K13">
+    <cfRule type="colorScale" priority="347">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF13:AJ13 K14">
+    <cfRule type="colorScale" priority="350">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14:AJ14 K15">
+    <cfRule type="colorScale" priority="353">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="colorScale" priority="358">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="360">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="colorScale" priority="371">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="373">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:I7 K7">
+    <cfRule type="colorScale" priority="379">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:I8 K8">
+    <cfRule type="colorScale" priority="382">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:I9 K9">
+    <cfRule type="colorScale" priority="385">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:I11 K11">
+    <cfRule type="colorScale" priority="391">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:I12 K12">
+    <cfRule type="colorScale" priority="394">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:I13 K13">
+    <cfRule type="colorScale" priority="397">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:I14 K14">
+    <cfRule type="colorScale" priority="400">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:I15 K15">
+    <cfRule type="colorScale" priority="403">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:I10 K10">
+    <cfRule type="colorScale" priority="415">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:K24">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -3957,7 +4672,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P36:S36">
+  <conditionalFormatting sqref="B25:K25">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -3969,7 +4684,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P37:S37">
+  <conditionalFormatting sqref="B26:K26">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -3981,7 +4696,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P38:S38">
+  <conditionalFormatting sqref="B27:K27">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -3993,7 +4708,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P39:S39">
+  <conditionalFormatting sqref="B28:K28">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -4005,7 +4720,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P40:S40">
+  <conditionalFormatting sqref="B29:K29">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -4017,7 +4732,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P41:S41">
+  <conditionalFormatting sqref="B30:K30">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -4029,31 +4744,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI12:AJ12 N22">
-    <cfRule type="colorScale" priority="198">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI13:AJ13">
-    <cfRule type="colorScale" priority="201">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH12:AJ12 N22">
+  <conditionalFormatting sqref="B31:K31">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:K32">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:K33">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:K15">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:K14">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:K13">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -4065,7 +4816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH13:AJ13">
+  <conditionalFormatting sqref="B12:K12">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -4077,7 +4828,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF14:AJ14">
+  <conditionalFormatting sqref="B11:K11">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:K10">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -4089,7 +4852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF13:AJ13">
+  <conditionalFormatting sqref="B9:K9">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -4101,7 +4864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF12:AJ12">
+  <conditionalFormatting sqref="B8:K8">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -4113,7 +4876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF11:AJ11">
+  <conditionalFormatting sqref="B7:K7">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -4125,319 +4888,355 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI14:AJ14">
-    <cfRule type="colorScale" priority="202">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI11:AJ11">
-    <cfRule type="colorScale" priority="203">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH11:AJ11">
-    <cfRule type="colorScale" priority="206">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH14:AJ14">
-    <cfRule type="colorScale" priority="209">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12 K12">
-    <cfRule type="colorScale" priority="239">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13 K13">
-    <cfRule type="colorScale" priority="242">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14 D14">
-    <cfRule type="colorScale" priority="245">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15 D15">
-    <cfRule type="colorScale" priority="248">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11:AJ14">
-    <cfRule type="colorScale" priority="294">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11:AJ11 K12">
-    <cfRule type="colorScale" priority="296">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF12:AJ12 K13">
-    <cfRule type="colorScale" priority="299">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13:AJ13 K14">
-    <cfRule type="colorScale" priority="302">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14:AJ14 K15">
-    <cfRule type="colorScale" priority="305">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="colorScale" priority="310">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="colorScale" priority="312">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="colorScale" priority="323">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="colorScale" priority="325">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:I7 K7">
-    <cfRule type="colorScale" priority="331">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:I8 K8">
-    <cfRule type="colorScale" priority="334">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:I9 K9">
-    <cfRule type="colorScale" priority="337">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:I11 K11">
-    <cfRule type="colorScale" priority="343">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:I12 K12">
-    <cfRule type="colorScale" priority="346">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:I13 K13">
-    <cfRule type="colorScale" priority="349">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:I14 K14">
-    <cfRule type="colorScale" priority="352">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:I15 K15">
-    <cfRule type="colorScale" priority="355">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:I10 K10">
-    <cfRule type="colorScale" priority="367">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:K24">
+  <conditionalFormatting sqref="B43:K43">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:K44">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:K45">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:K46">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:K47">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:K48">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:K49">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:K50">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:K51">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:K52">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:C75">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:C76">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:C77">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78:C78">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:C79">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80:C80">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81:C81">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82:C82">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:C83">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84:C84">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -4449,7 +5248,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:K25">
+  <conditionalFormatting sqref="G75">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G81">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -4461,103 +5356,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:K26">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:K27">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:K28">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:K29">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:K30">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:K31">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:K32">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:K33">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:K15">
+  <conditionalFormatting sqref="G83">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -4569,7 +5368,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:K14">
+  <conditionalFormatting sqref="G82">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -4581,7 +5380,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:K13">
+  <conditionalFormatting sqref="G81">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -4593,7 +5392,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:K12">
+  <conditionalFormatting sqref="G80">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -4605,7 +5404,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:K11">
+  <conditionalFormatting sqref="G79">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -4617,7 +5416,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:K10">
+  <conditionalFormatting sqref="G78">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -4629,7 +5428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:K9">
+  <conditionalFormatting sqref="G77">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -4641,7 +5440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:K8">
+  <conditionalFormatting sqref="G76">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -4653,7 +5452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:K7">
+  <conditionalFormatting sqref="G75">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -4665,7 +5464,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:K43">
+  <conditionalFormatting sqref="F75:G75">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -4677,7 +5476,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:K44">
+  <conditionalFormatting sqref="F76:G76">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4689,7 +5488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:K45">
+  <conditionalFormatting sqref="F77:G77">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4701,7 +5500,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:K46">
+  <conditionalFormatting sqref="F78:G78">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4713,7 +5512,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:K47">
+  <conditionalFormatting sqref="F79:G79">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4725,7 +5524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:K48">
+  <conditionalFormatting sqref="F80:G80">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4737,7 +5536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:K49">
+  <conditionalFormatting sqref="F81:G81">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4749,7 +5548,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:K50">
+  <conditionalFormatting sqref="F82:G82">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4761,7 +5560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:K51">
+  <conditionalFormatting sqref="F83:G83">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4773,7 +5572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:K52">
+  <conditionalFormatting sqref="F84:G84">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Results/All vs healthy.xlsx
+++ b/Results/All vs healthy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romar\OneDrive\Documenten\Thesis\Test\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomarNathoeRepubliq\Documents\GitHub\Test\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A11172-B7F1-4D6B-AF19-A678A629D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0ADF8E-72F7-47BF-BD53-19BF747651C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-2835" windowWidth="16440" windowHeight="28320" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -840,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB534E20-7A20-4F67-9434-43B8E155F083}">
   <dimension ref="A1:CT84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
@@ -4396,7 +4396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12 D12">
+  <conditionalFormatting sqref="D12 K12">
     <cfRule type="colorScale" priority="287">
       <colorScale>
         <cfvo type="min"/>
@@ -4408,7 +4408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13 D13">
+  <conditionalFormatting sqref="D13 K13">
     <cfRule type="colorScale" priority="290">
       <colorScale>
         <cfvo type="min"/>
@@ -4420,7 +4420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14 K14">
+  <conditionalFormatting sqref="K14 D14">
     <cfRule type="colorScale" priority="293">
       <colorScale>
         <cfvo type="min"/>
@@ -4432,7 +4432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15 K15">
+  <conditionalFormatting sqref="K15 D15">
     <cfRule type="colorScale" priority="296">
       <colorScale>
         <cfvo type="min"/>

--- a/Results/All vs healthy.xlsx
+++ b/Results/All vs healthy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomarNathoeRepubliq\Documents\GitHub\Test\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0ADF8E-72F7-47BF-BD53-19BF747651C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F896D71-82DE-46B5-A47F-E622D1803948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
+    <workbookView xWindow="4125" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
   <si>
     <t>intersection</t>
   </si>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB534E20-7A20-4F67-9434-43B8E155F083}">
   <dimension ref="A1:CT84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3482,6 +3482,9 @@
       <c r="G72" s="1">
         <v>200</v>
       </c>
+      <c r="H72" s="1">
+        <v>200</v>
+      </c>
     </row>
     <row r="73" spans="1:10">
       <c r="B73" s="1">
@@ -3496,6 +3499,9 @@
       <c r="G73" s="1">
         <v>0.4</v>
       </c>
+      <c r="H73" s="1">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="74" spans="1:10">
       <c r="B74" s="1">
@@ -3510,150 +3516,213 @@
       <c r="G74" s="1">
         <v>4</v>
       </c>
+      <c r="H74" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="B75" s="1">
+      <c r="B75" s="18">
         <v>0.99819168173598505</v>
       </c>
       <c r="C75" s="18">
         <v>0.99939649969824895</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="18">
         <v>0.99855907780979802</v>
       </c>
       <c r="G75" s="18">
         <v>0.99855907780979802</v>
       </c>
+      <c r="H75" s="18">
+        <v>0.99711815561959605</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="B76" s="1">
+      <c r="B76" s="18">
         <v>0.99390000000000001</v>
       </c>
       <c r="C76" s="18">
         <v>0.99939999999999996</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="18">
         <v>0.99650000000000005</v>
       </c>
       <c r="G76" s="18">
         <v>0.99650000000000005</v>
       </c>
+      <c r="H76" s="18">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="B77" s="1">
+      <c r="B77" s="18">
         <v>0.99760000000000004</v>
       </c>
       <c r="C77" s="18">
         <v>1</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="18">
         <v>0.99860000000000004</v>
       </c>
       <c r="G77" s="18">
         <v>0.99860000000000004</v>
       </c>
+      <c r="H77" s="18">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="B78" s="1">
+      <c r="B78" s="18">
         <v>0.99450000000000005</v>
       </c>
       <c r="C78" s="18">
         <v>0.99450000000000005</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="18">
         <v>0.99450000000000005</v>
       </c>
       <c r="G78" s="18">
         <v>0.99450000000000005</v>
       </c>
+      <c r="H78" s="18">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="B79" s="1">
+      <c r="B79" s="18">
         <v>1</v>
       </c>
       <c r="C79" s="18">
         <v>1</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="18">
         <v>1</v>
       </c>
       <c r="G79" s="18">
         <v>1</v>
       </c>
+      <c r="H79" s="18">
+        <v>1</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="B80" s="1">
+      <c r="B80" s="18">
         <v>0.99682981961378803</v>
       </c>
       <c r="C80" s="18">
         <v>0.99803875588403201</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="18">
         <v>0.99747225840085196</v>
       </c>
       <c r="G80" s="18">
         <v>0.99819428830808499</v>
       </c>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81" s="1">
+      <c r="H80" s="18">
+        <v>0.99782935342128498</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="18">
         <v>0.99304000000000003</v>
       </c>
       <c r="C81" s="18">
         <v>0.99587999999999999</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="18">
         <v>0.99544999999999995</v>
       </c>
       <c r="G81" s="18">
         <v>0.99666999999999994</v>
       </c>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="1">
+      <c r="H81" s="18">
+        <v>0.99680999999999997</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="18">
         <v>0.99789999999999901</v>
       </c>
       <c r="C82" s="18">
         <v>0.99879999999999902</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="18">
         <v>0.99856</v>
       </c>
       <c r="G82" s="18">
         <v>0.99891999999999903</v>
       </c>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="B83" s="1">
+      <c r="H82" s="18">
+        <v>0.99927999999999995</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="18">
         <v>0.98102999999999996</v>
       </c>
       <c r="C83" s="18">
         <v>0.98775000000000002</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="18">
         <v>0.98644999999999905</v>
       </c>
       <c r="G83" s="18">
         <v>0.99051999999999996</v>
       </c>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" s="1">
+      <c r="H83" s="18">
+        <v>0.98655000000000004</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="18">
         <v>1</v>
       </c>
       <c r="C84" s="18">
         <v>1</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="18">
         <v>1</v>
       </c>
       <c r="G84" s="1">
         <v>1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AB7:AC14">
-    <cfRule type="colorScale" priority="168">
+    <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3665,6 +3734,498 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB14:AC14">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB13:AC13">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB12:AC12">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB11:AC11">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB10:AC10">
+    <cfRule type="colorScale" priority="196">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB9:AC9">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB8:AC8">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB7:AC7">
+    <cfRule type="colorScale" priority="193">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q40">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41">
+    <cfRule type="colorScale" priority="208">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q38">
+    <cfRule type="colorScale" priority="210">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q39">
+    <cfRule type="colorScale" priority="212">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q34">
+    <cfRule type="colorScale" priority="214">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35">
+    <cfRule type="colorScale" priority="216">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q36">
+    <cfRule type="colorScale" priority="218">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q37">
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q34">
+    <cfRule type="colorScale" priority="222">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P41:Q41">
+    <cfRule type="colorScale" priority="225">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40:Q40">
+    <cfRule type="colorScale" priority="228">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39:Q39">
+    <cfRule type="colorScale" priority="231">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:Q38">
+    <cfRule type="colorScale" priority="234">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:Q37">
+    <cfRule type="colorScale" priority="237">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36:Q36">
+    <cfRule type="colorScale" priority="240">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:Q35">
+    <cfRule type="colorScale" priority="243">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:Q34">
+    <cfRule type="colorScale" priority="246">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:R34">
+    <cfRule type="colorScale" priority="249">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:R35">
+    <cfRule type="colorScale" priority="251">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36:R36">
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:R37">
+    <cfRule type="colorScale" priority="255">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:R38">
+    <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39:R39">
+    <cfRule type="colorScale" priority="259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40:R40">
+    <cfRule type="colorScale" priority="261">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P41:R41">
+    <cfRule type="colorScale" priority="263">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:S34">
+    <cfRule type="colorScale" priority="265">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:S35">
+    <cfRule type="colorScale" priority="267">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36:S36">
+    <cfRule type="colorScale" priority="269">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:S37">
+    <cfRule type="colorScale" priority="271">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:S38">
+    <cfRule type="colorScale" priority="273">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39:S39">
+    <cfRule type="colorScale" priority="275">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40:S40">
+    <cfRule type="colorScale" priority="277">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P41:S41">
+    <cfRule type="colorScale" priority="279">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:S34">
     <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
@@ -3676,7 +4237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB13:AC13">
+  <conditionalFormatting sqref="P35:S35">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
@@ -3688,7 +4249,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB12:AC12">
+  <conditionalFormatting sqref="P36:S36">
     <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
@@ -3700,7 +4261,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB11:AC11">
+  <conditionalFormatting sqref="P37:S37">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
@@ -3712,7 +4273,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB10:AC10">
+  <conditionalFormatting sqref="P38:S38">
     <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
@@ -3724,7 +4285,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB9:AC9">
+  <conditionalFormatting sqref="P39:S39">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
@@ -3736,7 +4297,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB8:AC8">
+  <conditionalFormatting sqref="P40:S40">
     <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
@@ -3748,7 +4309,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB7:AC7">
+  <conditionalFormatting sqref="P41:S41">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
@@ -3760,500 +4321,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q40">
-    <cfRule type="colorScale" priority="169">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q41">
-    <cfRule type="colorScale" priority="171">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q38">
-    <cfRule type="colorScale" priority="173">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q39">
-    <cfRule type="colorScale" priority="175">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q34">
-    <cfRule type="colorScale" priority="177">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q35">
-    <cfRule type="colorScale" priority="179">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q36">
-    <cfRule type="colorScale" priority="181">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q37">
-    <cfRule type="colorScale" priority="183">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q34">
-    <cfRule type="colorScale" priority="185">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P41:Q41">
-    <cfRule type="colorScale" priority="188">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P40:Q40">
-    <cfRule type="colorScale" priority="191">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P39:Q39">
-    <cfRule type="colorScale" priority="194">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P38:Q38">
-    <cfRule type="colorScale" priority="197">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P37:Q37">
-    <cfRule type="colorScale" priority="200">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P36:Q36">
-    <cfRule type="colorScale" priority="203">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P35:Q35">
-    <cfRule type="colorScale" priority="206">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P34:Q34">
-    <cfRule type="colorScale" priority="209">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P34:R34">
-    <cfRule type="colorScale" priority="212">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P35:R35">
-    <cfRule type="colorScale" priority="214">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P36:R36">
-    <cfRule type="colorScale" priority="216">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P37:R37">
-    <cfRule type="colorScale" priority="218">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P38:R38">
-    <cfRule type="colorScale" priority="220">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P39:R39">
-    <cfRule type="colorScale" priority="222">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P40:R40">
-    <cfRule type="colorScale" priority="224">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P41:R41">
-    <cfRule type="colorScale" priority="226">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P34:S34">
-    <cfRule type="colorScale" priority="228">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P35:S35">
-    <cfRule type="colorScale" priority="230">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P36:S36">
-    <cfRule type="colorScale" priority="232">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P37:S37">
-    <cfRule type="colorScale" priority="234">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P38:S38">
-    <cfRule type="colorScale" priority="236">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P39:S39">
-    <cfRule type="colorScale" priority="238">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P40:S40">
-    <cfRule type="colorScale" priority="240">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P41:S41">
-    <cfRule type="colorScale" priority="242">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P34:S34">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P35:S35">
-    <cfRule type="colorScale" priority="125">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P36:S36">
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P37:S37">
-    <cfRule type="colorScale" priority="123">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P38:S38">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P39:S39">
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P40:S40">
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P41:S41">
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AI12:AJ12 N22">
-    <cfRule type="colorScale" priority="246">
+    <cfRule type="colorScale" priority="283">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4265,7 +4334,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13:AJ13">
-    <cfRule type="colorScale" priority="249">
+    <cfRule type="colorScale" priority="286">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4277,6 +4346,402 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH12:AJ12 N22">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH13:AJ13">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14:AJ14">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF13:AJ13">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12:AJ12">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11:AJ11">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI14:AJ14">
+    <cfRule type="colorScale" priority="287">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI11:AJ11">
+    <cfRule type="colorScale" priority="288">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH11:AJ11">
+    <cfRule type="colorScale" priority="291">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH14:AJ14">
+    <cfRule type="colorScale" priority="294">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12 D12">
+    <cfRule type="colorScale" priority="324">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13 D13">
+    <cfRule type="colorScale" priority="327">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 K14">
+    <cfRule type="colorScale" priority="330">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 K15">
+    <cfRule type="colorScale" priority="333">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11:AJ14">
+    <cfRule type="colorScale" priority="379">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11:AJ11 K12">
+    <cfRule type="colorScale" priority="381">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12:AJ12 K13">
+    <cfRule type="colorScale" priority="384">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF13:AJ13 K14">
+    <cfRule type="colorScale" priority="387">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14:AJ14 K15">
+    <cfRule type="colorScale" priority="390">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="colorScale" priority="395">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="397">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="colorScale" priority="408">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="410">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:I7 K7">
+    <cfRule type="colorScale" priority="416">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:I8 K8">
+    <cfRule type="colorScale" priority="419">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:I9 K9">
+    <cfRule type="colorScale" priority="422">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:I11 K11">
+    <cfRule type="colorScale" priority="428">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:I12 K12">
+    <cfRule type="colorScale" priority="431">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:I13 K13">
+    <cfRule type="colorScale" priority="434">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:I14 K14">
+    <cfRule type="colorScale" priority="437">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:I15 K15">
+    <cfRule type="colorScale" priority="440">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:I10 K10">
+    <cfRule type="colorScale" priority="452">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:K24">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:K25">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -4288,7 +4753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH13:AJ13">
+  <conditionalFormatting sqref="B26:K26">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -4300,7 +4765,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF14:AJ14">
+  <conditionalFormatting sqref="B27:K27">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:K28">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -4312,7 +4789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF13:AJ13">
+  <conditionalFormatting sqref="B29:K29">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
@@ -4324,7 +4801,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF12:AJ12">
+  <conditionalFormatting sqref="B30:K30">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -4336,7 +4813,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF11:AJ11">
+  <conditionalFormatting sqref="B31:K31">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -4348,319 +4825,355 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI14:AJ14">
-    <cfRule type="colorScale" priority="250">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI11:AJ11">
-    <cfRule type="colorScale" priority="251">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH11:AJ11">
-    <cfRule type="colorScale" priority="254">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH14:AJ14">
-    <cfRule type="colorScale" priority="257">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12 K12">
-    <cfRule type="colorScale" priority="287">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13 K13">
-    <cfRule type="colorScale" priority="290">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14 D14">
-    <cfRule type="colorScale" priority="293">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15 D15">
-    <cfRule type="colorScale" priority="296">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11:AJ14">
-    <cfRule type="colorScale" priority="342">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11:AJ11 K12">
-    <cfRule type="colorScale" priority="344">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF12:AJ12 K13">
-    <cfRule type="colorScale" priority="347">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13:AJ13 K14">
-    <cfRule type="colorScale" priority="350">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14:AJ14 K15">
-    <cfRule type="colorScale" priority="353">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="colorScale" priority="358">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="colorScale" priority="360">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="colorScale" priority="371">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="colorScale" priority="373">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:I7 K7">
-    <cfRule type="colorScale" priority="379">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:I8 K8">
-    <cfRule type="colorScale" priority="382">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:I9 K9">
-    <cfRule type="colorScale" priority="385">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:I11 K11">
-    <cfRule type="colorScale" priority="391">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:I12 K12">
-    <cfRule type="colorScale" priority="394">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:I13 K13">
-    <cfRule type="colorScale" priority="397">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:I14 K14">
-    <cfRule type="colorScale" priority="400">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:I15 K15">
-    <cfRule type="colorScale" priority="403">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:I10 K10">
-    <cfRule type="colorScale" priority="415">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:K24">
+  <conditionalFormatting sqref="B32:K32">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:K33">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:K15">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:K14">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:K13">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:K12">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:K11">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:K10">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:K9">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:K8">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:K7">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:K43">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:K44">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:K45">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:K46">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:K47">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:K48">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:K49">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:K50">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:K51">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:K52">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -4672,7 +5185,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:K25">
+  <conditionalFormatting sqref="C84">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -4684,7 +5197,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:K26">
+  <conditionalFormatting sqref="B75:C75">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -4696,7 +5209,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:K27">
+  <conditionalFormatting sqref="B76:C76">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -4708,7 +5221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:K28">
+  <conditionalFormatting sqref="B77:C77">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -4720,7 +5233,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:K29">
+  <conditionalFormatting sqref="B78:C78">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -4732,7 +5245,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:K30">
+  <conditionalFormatting sqref="B79:C79">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -4744,7 +5257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:K31">
+  <conditionalFormatting sqref="B80:C80">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -4756,7 +5269,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:K32">
+  <conditionalFormatting sqref="B81:C81">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -4768,7 +5281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:K33">
+  <conditionalFormatting sqref="B82:C82">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -4780,7 +5293,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:K15">
+  <conditionalFormatting sqref="B83:C83">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -4792,7 +5305,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:K14">
+  <conditionalFormatting sqref="B84:C84">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -4804,7 +5317,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:K13">
+  <conditionalFormatting sqref="G75">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G81">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -4816,103 +5425,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:K12">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:K11">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:K10">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:K9">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:K8">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:K7">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:K43">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:K44">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:K45">
+  <conditionalFormatting sqref="G83">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -4924,7 +5437,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:K46">
+  <conditionalFormatting sqref="G82">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -4936,7 +5449,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:K47">
+  <conditionalFormatting sqref="G81">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4948,7 +5461,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:K48">
+  <conditionalFormatting sqref="G80">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -4960,7 +5473,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:K49">
+  <conditionalFormatting sqref="G79">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -4972,7 +5485,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:K50">
+  <conditionalFormatting sqref="G78">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -4984,7 +5497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:K51">
+  <conditionalFormatting sqref="G77">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -4996,7 +5509,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:K52">
+  <conditionalFormatting sqref="G76">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -5008,7 +5521,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
+  <conditionalFormatting sqref="G75">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -5020,7 +5533,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
+  <conditionalFormatting sqref="F75:G75">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -5032,7 +5545,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
+  <conditionalFormatting sqref="F76:G76">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -5044,7 +5557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
+  <conditionalFormatting sqref="F77:G77">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -5056,7 +5569,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
+  <conditionalFormatting sqref="F78:G78">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -5068,7 +5581,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
+  <conditionalFormatting sqref="F79:G79">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -5080,7 +5593,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
+  <conditionalFormatting sqref="F80:G80">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -5092,7 +5605,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
+  <conditionalFormatting sqref="F81:G81">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -5104,7 +5617,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
+  <conditionalFormatting sqref="F82:G82">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -5116,7 +5629,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
+  <conditionalFormatting sqref="F83:G83">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5128,7 +5641,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75:C75">
+  <conditionalFormatting sqref="F84:G84">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -5140,7 +5653,235 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76:C76">
+  <conditionalFormatting sqref="H80">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -5152,235 +5893,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77:C77">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78:C78">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79:C79">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80:C80">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81:C81">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82:C82">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83:C83">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84:C84">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G75">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G77">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G81">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G81">
+  <conditionalFormatting sqref="H83">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5392,7 +5905,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
+  <conditionalFormatting sqref="H82">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5404,7 +5917,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G79">
+  <conditionalFormatting sqref="H81">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5416,7 +5929,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
+  <conditionalFormatting sqref="H80">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5428,7 +5941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G77">
+  <conditionalFormatting sqref="H79">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5440,7 +5953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
+  <conditionalFormatting sqref="H78">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5452,7 +5965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75">
+  <conditionalFormatting sqref="H77">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5464,7 +5977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:G75">
+  <conditionalFormatting sqref="H76">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5476,7 +5989,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
+  <conditionalFormatting sqref="H75">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5488,7 +6001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:G77">
+  <conditionalFormatting sqref="F75:H75">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5500,7 +6013,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
+  <conditionalFormatting sqref="F76:H76">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5512,7 +6025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79:G79">
+  <conditionalFormatting sqref="F77:H77">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5524,7 +6037,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F80:G80">
+  <conditionalFormatting sqref="F78:H78">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5536,7 +6049,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:G81">
+  <conditionalFormatting sqref="F80:H80">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5548,7 +6061,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F82:G82">
+  <conditionalFormatting sqref="F81:H81">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5560,7 +6073,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
+  <conditionalFormatting sqref="F82:H82">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5572,7 +6085,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="F83:H83">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Results/All vs healthy.xlsx
+++ b/Results/All vs healthy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomarNathoeRepubliq\Documents\GitHub\Test\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F896D71-82DE-46B5-A47F-E622D1803948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB9FA69-29A2-47D2-A297-B910DF2E7D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
+    <workbookView xWindow="5790" yWindow="1590" windowWidth="21600" windowHeight="11295" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -840,18 +840,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB534E20-7A20-4F67-9434-43B8E155F083}">
   <dimension ref="A1:CT84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.140625" customWidth="1"/>
@@ -4465,7 +4465,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12 D12">
+  <conditionalFormatting sqref="D12 K12">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="min"/>
@@ -4477,7 +4477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13 D13">
+  <conditionalFormatting sqref="D13 K13">
     <cfRule type="colorScale" priority="327">
       <colorScale>
         <cfvo type="min"/>
@@ -4489,7 +4489,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14 K14">
+  <conditionalFormatting sqref="K14 D14">
     <cfRule type="colorScale" priority="330">
       <colorScale>
         <cfvo type="min"/>
@@ -4501,7 +4501,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15 K15">
+  <conditionalFormatting sqref="K15 D15">
     <cfRule type="colorScale" priority="333">
       <colorScale>
         <cfvo type="min"/>

--- a/Results/All vs healthy.xlsx
+++ b/Results/All vs healthy.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomarNathoeRepubliq\Documents\GitHub\Test\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romar\OneDrive\Documenten\Thesis\Test\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB9FA69-29A2-47D2-A297-B910DF2E7D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE86728-72DD-4BB2-9469-E2D08CE6C6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="1590" windowWidth="21600" windowHeight="11295" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
+    <workbookView xWindow="6825" yWindow="3720" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="119">
   <si>
     <t>intersection</t>
   </si>
@@ -389,6 +390,9 @@
   </si>
   <si>
     <t>best</t>
+  </si>
+  <si>
+    <t>breast</t>
   </si>
 </sst>
 </file>
@@ -840,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB534E20-7A20-4F67-9434-43B8E155F083}">
   <dimension ref="A1:CT84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
@@ -4465,7 +4469,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12 K12">
+  <conditionalFormatting sqref="K12 D12">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="min"/>
@@ -4477,7 +4481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13 K13">
+  <conditionalFormatting sqref="K13 D13">
     <cfRule type="colorScale" priority="327">
       <colorScale>
         <cfvo type="min"/>
@@ -4489,7 +4493,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14 D14">
+  <conditionalFormatting sqref="D14 K14">
     <cfRule type="colorScale" priority="330">
       <colorScale>
         <cfvo type="min"/>
@@ -4501,7 +4505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15 D15">
+  <conditionalFormatting sqref="D15 K15">
     <cfRule type="colorScale" priority="333">
       <colorScale>
         <cfvo type="min"/>
@@ -6100,4 +6104,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A1B2BD-C40A-4600-AC8F-072E696EE977}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.93333333299999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.99450000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.93041672799999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.97572999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13">
+        <v>0.90571000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14">
+        <v>0.99592999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/All vs healthy.xlsx
+++ b/Results/All vs healthy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romar\OneDrive\Documenten\Thesis\Test\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/406aaf9c23ac983a/Documenten/Thesis/Test/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE86728-72DD-4BB2-9469-E2D08CE6C6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{0CE86728-72DD-4BB2-9469-E2D08CE6C6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB094A23-8C3C-4C57-A2B7-EA10978E3EC2}"/>
   <bookViews>
     <workbookView xWindow="6825" yWindow="3720" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{7E266EB4-F3CB-47A9-A6C5-E89E8219E7DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="125">
   <si>
     <t>intersection</t>
   </si>
@@ -393,6 +393,24 @@
   </si>
   <si>
     <t>breast</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.9466666666666667</t>
+  </si>
+  <si>
+    <t>0.9722200000000001</t>
+  </si>
+  <si>
+    <t>0.9666699999999999</t>
+  </si>
+  <si>
+    <t>0.99474</t>
   </si>
 </sst>
 </file>
@@ -4469,7 +4487,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12 D12">
+  <conditionalFormatting sqref="D12 K12">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="min"/>
@@ -4481,7 +4499,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13 D13">
+  <conditionalFormatting sqref="D13 K13">
     <cfRule type="colorScale" priority="327">
       <colorScale>
         <cfvo type="min"/>
@@ -4493,7 +4511,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14 K14">
+  <conditionalFormatting sqref="K14 D14">
     <cfRule type="colorScale" priority="330">
       <colorScale>
         <cfvo type="min"/>
@@ -4505,7 +4523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15 K15">
+  <conditionalFormatting sqref="K15 D15">
     <cfRule type="colorScale" priority="333">
       <colorScale>
         <cfvo type="min"/>
@@ -6108,124 +6126,216 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A1B2BD-C40A-4600-AC8F-072E696EE977}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="2" spans="1:12">
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>75</v>
+      </c>
+      <c r="H2">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="I2">
+        <v>125</v>
+      </c>
+      <c r="J2">
+        <v>150</v>
+      </c>
+      <c r="K2">
+        <v>175</v>
+      </c>
+      <c r="L2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>66</v>
+      </c>
+      <c r="H3">
+        <v>92</v>
+      </c>
+      <c r="I3">
+        <v>120</v>
+      </c>
+      <c r="J3">
+        <v>133</v>
+      </c>
+      <c r="K3">
+        <v>139</v>
+      </c>
+      <c r="L3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="L4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="L5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0.93333333299999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="L7" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>0.9718</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="L8" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>0.91300000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="L9" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>0.99450000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="L10" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
         <v>99</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>0.93041672799999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="L12" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>0.97572999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="L13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
         <v>101</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>0.90571000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="L14" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
         <v>102</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>0.99592999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="L15" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
         <v>100</v>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>